--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #02  FEBRERO 2023/CREDITOS  HERRADURA   FEBRERO     2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #02  FEBRERO 2023/CREDITOS  HERRADURA   FEBRERO     2023.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19995" windowHeight="11730"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19995" windowHeight="11730" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="REMISIONES  ENERO  2023     " sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId2"/>
+    <sheet name="REMISIONES  FEBRERO  2023" sheetId="3" r:id="rId2"/>
     <sheet name="Hoja4" sheetId="4" r:id="rId3"/>
     <sheet name="Hoja5" sheetId="5" r:id="rId4"/>
     <sheet name="Hoja6" sheetId="6" r:id="rId5"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="45">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    H E R R A D U R A </t>
   </si>
@@ -142,7 +142,28 @@
     <t>28-Ene-23--29-Ene-23</t>
   </si>
   <si>
-    <t>29-Ene-23--</t>
+    <t>REMISIONES    POR     CREDITOS         DE   FEBRERO      2 0 2 3</t>
+  </si>
+  <si>
+    <t>29-Ene-23--30-Ene-23</t>
+  </si>
+  <si>
+    <t>31-Ene-23--1-Feb-23</t>
+  </si>
+  <si>
+    <t>1-Feb-23--2-Feb-23</t>
+  </si>
+  <si>
+    <t>3-Feb-23--4-Feb-23</t>
+  </si>
+  <si>
+    <t>4-Feb-23--5-Feb-23</t>
+  </si>
+  <si>
+    <t>6-Feb-23--</t>
+  </si>
+  <si>
+    <t>5-Feb-23--7-Feb-23</t>
   </si>
 </sst>
 </file>
@@ -283,7 +304,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -323,6 +344,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,7 +524,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -684,6 +711,12 @@
     </xf>
     <xf numFmtId="166" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -694,6 +727,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FFFFCCFF"/>
       <color rgb="FF66FFCC"/>
     </mruColors>
@@ -791,6 +825,117 @@
       <xdr:spPr>
         <a:xfrm rot="5400000">
           <a:off x="5472114" y="44229342"/>
+          <a:ext cx="638173" cy="495298"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>647703</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>152402</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="1 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EA8ED25-5E55-4F35-9A11-570092F029FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4576765" y="20645440"/>
+          <a:ext cx="581022" cy="590546"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561977</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>123829</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>161927</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="2 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2272C1A0-23C1-416E-8467-7A61862AE18E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5472114" y="20693067"/>
           <a:ext cx="638173" cy="495298"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1088,9 +1233,9 @@
   </sheetPr>
   <dimension ref="A1:I97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B77" sqref="B77"/>
+      <selection pane="bottomLeft" activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2844,11 +2989,15 @@
       <c r="E68" s="22">
         <v>16800</v>
       </c>
-      <c r="F68" s="23"/>
-      <c r="G68" s="32"/>
+      <c r="F68" s="75">
+        <v>44962</v>
+      </c>
+      <c r="G68" s="76">
+        <v>16800</v>
+      </c>
       <c r="H68" s="20">
         <f t="shared" si="0"/>
-        <v>16800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -2866,14 +3015,18 @@
       <c r="E69" s="22">
         <v>1547</v>
       </c>
-      <c r="F69" s="23"/>
-      <c r="G69" s="32"/>
+      <c r="F69" s="75">
+        <v>44956</v>
+      </c>
+      <c r="G69" s="76">
+        <v>1547</v>
+      </c>
       <c r="H69" s="20">
         <f t="shared" si="0"/>
-        <v>1547</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A70" s="24">
         <v>44954</v>
       </c>
@@ -2889,15 +3042,15 @@
         <v>3037</v>
       </c>
       <c r="F70" s="23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G70" s="32">
-        <f>2000</f>
-        <v>2000</v>
+        <f>2000+1037</f>
+        <v>3037</v>
       </c>
       <c r="H70" s="20">
         <f t="shared" si="0"/>
-        <v>1037</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -2941,11 +3094,15 @@
       <c r="E72" s="22">
         <v>7800</v>
       </c>
-      <c r="F72" s="23"/>
-      <c r="G72" s="32"/>
+      <c r="F72" s="75">
+        <v>44956</v>
+      </c>
+      <c r="G72" s="76">
+        <v>7800</v>
+      </c>
       <c r="H72" s="20">
         <f t="shared" si="0"/>
-        <v>7800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2963,11 +3120,15 @@
       <c r="E73" s="22">
         <v>1248</v>
       </c>
-      <c r="F73" s="23"/>
-      <c r="G73" s="32"/>
+      <c r="F73" s="75">
+        <v>44957</v>
+      </c>
+      <c r="G73" s="76">
+        <v>1248</v>
+      </c>
       <c r="H73" s="20">
         <f t="shared" si="0"/>
-        <v>1248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -2985,10 +3146,15 @@
       <c r="E74" s="22">
         <v>4395</v>
       </c>
-      <c r="F74" s="23"/>
-      <c r="G74" s="32"/>
+      <c r="F74" s="75">
+        <v>44956</v>
+      </c>
+      <c r="G74" s="76">
+        <v>4395</v>
+      </c>
       <c r="H74" s="20">
-        <v>356</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3006,11 +3172,15 @@
       <c r="E75" s="22">
         <v>4906</v>
       </c>
-      <c r="F75" s="23"/>
-      <c r="G75" s="32"/>
+      <c r="F75" s="75">
+        <v>44956</v>
+      </c>
+      <c r="G75" s="76">
+        <v>4906</v>
+      </c>
       <c r="H75" s="20">
         <f t="shared" si="0"/>
-        <v>4906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3079,11 +3249,11 @@
       <c r="F80" s="47"/>
       <c r="G80" s="47">
         <f>SUM(G4:G79)</f>
-        <v>348257</v>
+        <v>385990</v>
       </c>
       <c r="H80" s="48">
         <f>SUM(H4:H79)</f>
-        <v>33694</v>
+        <v>0</v>
       </c>
       <c r="I80" s="3"/>
     </row>
@@ -3127,7 +3297,7 @@
       <c r="D84" s="3"/>
       <c r="E84" s="71">
         <f>E80-G80</f>
-        <v>37733</v>
+        <v>0</v>
       </c>
       <c r="F84" s="72"/>
       <c r="G84" s="73"/>
@@ -3268,15 +3438,1692 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <tabColor rgb="FF7030A0"/>
+  </sheetPr>
+  <dimension ref="A1:I97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="13.140625" style="57" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="58" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="59" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="60" customWidth="1"/>
+    <col min="7" max="7" width="18" style="66" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="69"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="4"/>
+      <c r="B2" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" ht="46.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
+        <v>44956</v>
+      </c>
+      <c r="B4" s="15">
+        <v>1041</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="18">
+        <v>5351</v>
+      </c>
+      <c r="F4" s="19">
+        <v>44958</v>
+      </c>
+      <c r="G4" s="62">
+        <v>5351</v>
+      </c>
+      <c r="H4" s="20">
+        <f t="shared" ref="H4:H79" si="0">E4-G4</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
+        <v>44956</v>
+      </c>
+      <c r="B5" s="15">
+        <v>1042</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="22">
+        <v>2064</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="32">
+        <f>1000+1064</f>
+        <v>2064</v>
+      </c>
+      <c r="H5" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
+        <v>44956</v>
+      </c>
+      <c r="B6" s="15">
+        <f t="shared" ref="B6:B69" si="1">B5+1</f>
+        <v>1043</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="22">
+        <v>3595</v>
+      </c>
+      <c r="F6" s="23">
+        <v>44958</v>
+      </c>
+      <c r="G6" s="32">
+        <v>3595</v>
+      </c>
+      <c r="H6" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="24">
+        <v>44957</v>
+      </c>
+      <c r="B7" s="15">
+        <f t="shared" si="1"/>
+        <v>1044</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="22">
+        <v>5292</v>
+      </c>
+      <c r="F7" s="23">
+        <v>44959</v>
+      </c>
+      <c r="G7" s="32">
+        <v>5292</v>
+      </c>
+      <c r="H7" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
+        <v>44957</v>
+      </c>
+      <c r="B8" s="15">
+        <f t="shared" si="1"/>
+        <v>1045</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="22">
+        <v>2822</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="32">
+        <f>1000+1822</f>
+        <v>2822</v>
+      </c>
+      <c r="H8" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
+        <v>44958</v>
+      </c>
+      <c r="B9" s="15">
+        <f t="shared" si="1"/>
+        <v>1046</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="22">
+        <v>915</v>
+      </c>
+      <c r="F9" s="23">
+        <v>44960</v>
+      </c>
+      <c r="G9" s="32">
+        <v>915</v>
+      </c>
+      <c r="H9" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
+        <v>44958</v>
+      </c>
+      <c r="B10" s="15">
+        <f t="shared" si="1"/>
+        <v>1047</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="22">
+        <v>5616</v>
+      </c>
+      <c r="F10" s="23">
+        <v>44960</v>
+      </c>
+      <c r="G10" s="32">
+        <v>5616</v>
+      </c>
+      <c r="H10" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
+        <v>44959</v>
+      </c>
+      <c r="B11" s="15">
+        <f t="shared" si="1"/>
+        <v>1048</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="22">
+        <v>1294</v>
+      </c>
+      <c r="F11" s="23">
+        <v>44960</v>
+      </c>
+      <c r="G11" s="32">
+        <v>1294</v>
+      </c>
+      <c r="H11" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
+        <v>44959</v>
+      </c>
+      <c r="B12" s="15">
+        <f t="shared" si="1"/>
+        <v>1049</v>
+      </c>
+      <c r="C12" s="26"/>
+      <c r="D12" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="22">
+        <v>2196</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="32">
+        <f>1000+1196</f>
+        <v>2196</v>
+      </c>
+      <c r="H12" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
+        <v>44959</v>
+      </c>
+      <c r="B13" s="15">
+        <f t="shared" si="1"/>
+        <v>1050</v>
+      </c>
+      <c r="C13" s="27"/>
+      <c r="D13" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="22">
+        <v>4721</v>
+      </c>
+      <c r="F13" s="23">
+        <v>44960</v>
+      </c>
+      <c r="G13" s="32">
+        <v>4721</v>
+      </c>
+      <c r="H13" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
+        <v>44960</v>
+      </c>
+      <c r="B14" s="15">
+        <f t="shared" si="1"/>
+        <v>1051</v>
+      </c>
+      <c r="C14" s="26"/>
+      <c r="D14" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="22">
+        <v>10150</v>
+      </c>
+      <c r="F14" s="23">
+        <v>44964</v>
+      </c>
+      <c r="G14" s="32">
+        <v>10150</v>
+      </c>
+      <c r="H14" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
+        <v>44960</v>
+      </c>
+      <c r="B15" s="15">
+        <f t="shared" si="1"/>
+        <v>1052</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="D15" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="22">
+        <v>2683</v>
+      </c>
+      <c r="F15" s="23">
+        <v>44962</v>
+      </c>
+      <c r="G15" s="32">
+        <v>2683</v>
+      </c>
+      <c r="H15" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
+        <v>44960</v>
+      </c>
+      <c r="B16" s="15">
+        <f t="shared" si="1"/>
+        <v>1053</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="22">
+        <v>15250</v>
+      </c>
+      <c r="F16" s="23"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="20">
+        <f t="shared" si="0"/>
+        <v>15250</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
+        <v>44960</v>
+      </c>
+      <c r="B17" s="15">
+        <f t="shared" si="1"/>
+        <v>1054</v>
+      </c>
+      <c r="C17" s="27"/>
+      <c r="D17" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="22">
+        <v>4099</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="32">
+        <f>3099+1000</f>
+        <v>4099</v>
+      </c>
+      <c r="H17" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
+        <v>44961</v>
+      </c>
+      <c r="B18" s="15">
+        <f t="shared" si="1"/>
+        <v>1055</v>
+      </c>
+      <c r="C18" s="26"/>
+      <c r="D18" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="22">
+        <v>3541</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="32">
+        <f>1900+1000</f>
+        <v>2900</v>
+      </c>
+      <c r="H18" s="20">
+        <f t="shared" si="0"/>
+        <v>641</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="14">
+        <v>44961</v>
+      </c>
+      <c r="B19" s="15">
+        <f t="shared" si="1"/>
+        <v>1056</v>
+      </c>
+      <c r="C19" s="27"/>
+      <c r="D19" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="22">
+        <v>870</v>
+      </c>
+      <c r="F19" s="23"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="20">
+        <f t="shared" si="0"/>
+        <v>870</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="14">
+        <v>44962</v>
+      </c>
+      <c r="B20" s="15">
+        <f t="shared" si="1"/>
+        <v>1057</v>
+      </c>
+      <c r="C20" s="26"/>
+      <c r="D20" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="22">
+        <v>2855</v>
+      </c>
+      <c r="F20" s="23"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="20">
+        <f t="shared" si="0"/>
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="14">
+        <v>44962</v>
+      </c>
+      <c r="B21" s="15">
+        <f t="shared" si="1"/>
+        <v>1058</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="22">
+        <v>211</v>
+      </c>
+      <c r="F21" s="23"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="20">
+        <f t="shared" si="0"/>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="14">
+        <v>44963</v>
+      </c>
+      <c r="B22" s="15">
+        <f t="shared" si="1"/>
+        <v>1059</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="D22" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="22">
+        <v>55696</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" s="32">
+        <f>55000</f>
+        <v>55000</v>
+      </c>
+      <c r="H22" s="20">
+        <f t="shared" si="0"/>
+        <v>696</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="14">
+        <v>44963</v>
+      </c>
+      <c r="B23" s="15">
+        <f t="shared" si="1"/>
+        <v>1060</v>
+      </c>
+      <c r="C23" s="26"/>
+      <c r="D23" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="22">
+        <v>5199</v>
+      </c>
+      <c r="F23" s="23">
+        <v>44964</v>
+      </c>
+      <c r="G23" s="32">
+        <v>5199</v>
+      </c>
+      <c r="H23" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="14">
+        <v>44963</v>
+      </c>
+      <c r="B24" s="15">
+        <f t="shared" si="1"/>
+        <v>1061</v>
+      </c>
+      <c r="C24" s="26"/>
+      <c r="D24" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="22">
+        <v>2009</v>
+      </c>
+      <c r="F24" s="23"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="20">
+        <f t="shared" si="0"/>
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="14">
+        <v>44964</v>
+      </c>
+      <c r="B25" s="15">
+        <f t="shared" si="1"/>
+        <v>1062</v>
+      </c>
+      <c r="C25" s="26"/>
+      <c r="D25" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="22">
+        <v>2370</v>
+      </c>
+      <c r="F25" s="23"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="20">
+        <f t="shared" si="0"/>
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="14">
+        <v>44964</v>
+      </c>
+      <c r="B26" s="15">
+        <f t="shared" si="1"/>
+        <v>1063</v>
+      </c>
+      <c r="C26" s="26"/>
+      <c r="D26" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="22">
+        <v>5280</v>
+      </c>
+      <c r="F26" s="23"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="20">
+        <f t="shared" si="0"/>
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="14">
+        <v>44964</v>
+      </c>
+      <c r="B27" s="15">
+        <f t="shared" si="1"/>
+        <v>1064</v>
+      </c>
+      <c r="C27" s="26"/>
+      <c r="D27" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="22">
+        <v>3720</v>
+      </c>
+      <c r="F27" s="23"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="20">
+        <f t="shared" si="0"/>
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="14"/>
+      <c r="B28" s="15">
+        <f t="shared" si="1"/>
+        <v>1065</v>
+      </c>
+      <c r="C28" s="26"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="14"/>
+      <c r="B29" s="15">
+        <f t="shared" si="1"/>
+        <v>1066</v>
+      </c>
+      <c r="C29" s="26"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="14"/>
+      <c r="B30" s="15">
+        <f t="shared" si="1"/>
+        <v>1067</v>
+      </c>
+      <c r="C30" s="26"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="14"/>
+      <c r="B31" s="15">
+        <f t="shared" si="1"/>
+        <v>1068</v>
+      </c>
+      <c r="C31" s="26"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
+      <c r="B32" s="15">
+        <f t="shared" si="1"/>
+        <v>1069</v>
+      </c>
+      <c r="C32" s="26"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="14"/>
+      <c r="B33" s="15">
+        <f t="shared" si="1"/>
+        <v>1070</v>
+      </c>
+      <c r="C33" s="26"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="14"/>
+      <c r="B34" s="15">
+        <f t="shared" si="1"/>
+        <v>1071</v>
+      </c>
+      <c r="C34" s="26"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="14"/>
+      <c r="B35" s="15">
+        <f t="shared" si="1"/>
+        <v>1072</v>
+      </c>
+      <c r="C35" s="26"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="14"/>
+      <c r="B36" s="15">
+        <f t="shared" si="1"/>
+        <v>1073</v>
+      </c>
+      <c r="C36" s="26"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="14"/>
+      <c r="B37" s="15">
+        <f t="shared" si="1"/>
+        <v>1074</v>
+      </c>
+      <c r="C37" s="26"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="14"/>
+      <c r="B38" s="15">
+        <f t="shared" si="1"/>
+        <v>1075</v>
+      </c>
+      <c r="C38" s="26"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="14"/>
+      <c r="B39" s="15">
+        <f t="shared" si="1"/>
+        <v>1076</v>
+      </c>
+      <c r="C39" s="26"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="14"/>
+      <c r="B40" s="15">
+        <f t="shared" si="1"/>
+        <v>1077</v>
+      </c>
+      <c r="C40" s="26"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="14"/>
+      <c r="B41" s="15">
+        <f t="shared" si="1"/>
+        <v>1078</v>
+      </c>
+      <c r="C41" s="26"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="14"/>
+      <c r="B42" s="15">
+        <f t="shared" si="1"/>
+        <v>1079</v>
+      </c>
+      <c r="C42" s="26"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="14"/>
+      <c r="B43" s="15">
+        <f t="shared" si="1"/>
+        <v>1080</v>
+      </c>
+      <c r="C43" s="26"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="14"/>
+      <c r="B44" s="15">
+        <f t="shared" si="1"/>
+        <v>1081</v>
+      </c>
+      <c r="C44" s="26"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="14"/>
+      <c r="B45" s="15">
+        <f t="shared" si="1"/>
+        <v>1082</v>
+      </c>
+      <c r="C45" s="26"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="14"/>
+      <c r="B46" s="15">
+        <f t="shared" si="1"/>
+        <v>1083</v>
+      </c>
+      <c r="C46" s="26"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="14"/>
+      <c r="B47" s="15">
+        <f t="shared" si="1"/>
+        <v>1084</v>
+      </c>
+      <c r="C47" s="28"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="15">
+        <f t="shared" si="1"/>
+        <v>1085</v>
+      </c>
+      <c r="C48" s="29"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="15">
+        <f t="shared" si="1"/>
+        <v>1086</v>
+      </c>
+      <c r="C49" s="26"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="14"/>
+      <c r="B50" s="15">
+        <f t="shared" si="1"/>
+        <v>1087</v>
+      </c>
+      <c r="C50" s="26"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="14"/>
+      <c r="B51" s="15">
+        <f t="shared" si="1"/>
+        <v>1088</v>
+      </c>
+      <c r="C51" s="26"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="14"/>
+      <c r="B52" s="15">
+        <f t="shared" si="1"/>
+        <v>1089</v>
+      </c>
+      <c r="C52" s="26"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="14"/>
+      <c r="B53" s="15">
+        <f t="shared" si="1"/>
+        <v>1090</v>
+      </c>
+      <c r="C53" s="26"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="14"/>
+      <c r="B54" s="15">
+        <f t="shared" si="1"/>
+        <v>1091</v>
+      </c>
+      <c r="C54" s="26"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="30"/>
+      <c r="B55" s="15">
+        <f t="shared" si="1"/>
+        <v>1092</v>
+      </c>
+      <c r="C55" s="26"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="14"/>
+      <c r="B56" s="15">
+        <f t="shared" si="1"/>
+        <v>1093</v>
+      </c>
+      <c r="C56" s="26"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="14"/>
+      <c r="B57" s="15">
+        <f t="shared" si="1"/>
+        <v>1094</v>
+      </c>
+      <c r="C57" s="26"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="14"/>
+      <c r="B58" s="15">
+        <f t="shared" si="1"/>
+        <v>1095</v>
+      </c>
+      <c r="C58" s="26"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="14"/>
+      <c r="B59" s="15">
+        <f t="shared" si="1"/>
+        <v>1096</v>
+      </c>
+      <c r="C59" s="26"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="14"/>
+      <c r="B60" s="15">
+        <f t="shared" si="1"/>
+        <v>1097</v>
+      </c>
+      <c r="C60" s="26"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="32"/>
+      <c r="H60" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="14"/>
+      <c r="B61" s="15">
+        <f t="shared" si="1"/>
+        <v>1098</v>
+      </c>
+      <c r="C61" s="26"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="14"/>
+      <c r="B62" s="15">
+        <f t="shared" si="1"/>
+        <v>1099</v>
+      </c>
+      <c r="C62" s="26"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="14"/>
+      <c r="B63" s="15">
+        <f t="shared" si="1"/>
+        <v>1100</v>
+      </c>
+      <c r="C63" s="26"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="14"/>
+      <c r="B64" s="15">
+        <f t="shared" si="1"/>
+        <v>1101</v>
+      </c>
+      <c r="C64" s="26"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="24"/>
+      <c r="B65" s="15">
+        <f t="shared" si="1"/>
+        <v>1102</v>
+      </c>
+      <c r="C65" s="26"/>
+      <c r="D65" s="35"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="24"/>
+      <c r="B66" s="15">
+        <f t="shared" si="1"/>
+        <v>1103</v>
+      </c>
+      <c r="C66" s="26"/>
+      <c r="D66" s="35"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="32"/>
+      <c r="H66" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="24"/>
+      <c r="B67" s="15">
+        <f t="shared" si="1"/>
+        <v>1104</v>
+      </c>
+      <c r="C67" s="26"/>
+      <c r="D67" s="35"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="32"/>
+      <c r="H67" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="24"/>
+      <c r="B68" s="15">
+        <f t="shared" si="1"/>
+        <v>1105</v>
+      </c>
+      <c r="C68" s="26"/>
+      <c r="D68" s="35"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="32"/>
+      <c r="H68" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="24"/>
+      <c r="B69" s="15">
+        <f t="shared" si="1"/>
+        <v>1106</v>
+      </c>
+      <c r="C69" s="26"/>
+      <c r="D69" s="35"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="23"/>
+      <c r="G69" s="32"/>
+      <c r="H69" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="24"/>
+      <c r="B70" s="15">
+        <f t="shared" ref="B70:B75" si="2">B69+1</f>
+        <v>1107</v>
+      </c>
+      <c r="C70" s="26"/>
+      <c r="D70" s="35"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="23"/>
+      <c r="G70" s="32"/>
+      <c r="H70" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="24"/>
+      <c r="B71" s="15">
+        <f t="shared" si="2"/>
+        <v>1108</v>
+      </c>
+      <c r="C71" s="26"/>
+      <c r="D71" s="35"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="32"/>
+      <c r="H71" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="24"/>
+      <c r="B72" s="15">
+        <f t="shared" si="2"/>
+        <v>1109</v>
+      </c>
+      <c r="C72" s="26"/>
+      <c r="D72" s="35"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="23"/>
+      <c r="G72" s="32"/>
+      <c r="H72" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="24"/>
+      <c r="B73" s="15">
+        <f t="shared" si="2"/>
+        <v>1110</v>
+      </c>
+      <c r="C73" s="26"/>
+      <c r="D73" s="35"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="32"/>
+      <c r="H73" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="24"/>
+      <c r="B74" s="15">
+        <f t="shared" si="2"/>
+        <v>1111</v>
+      </c>
+      <c r="C74" s="26"/>
+      <c r="D74" s="35"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="32"/>
+      <c r="H74" s="20">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="24"/>
+      <c r="B75" s="15">
+        <f t="shared" si="2"/>
+        <v>1112</v>
+      </c>
+      <c r="C75" s="26"/>
+      <c r="D75" s="35"/>
+      <c r="E75" s="22"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="32"/>
+      <c r="H75" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="36"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="35"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="23"/>
+      <c r="G76" s="32"/>
+      <c r="H76" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="36"/>
+      <c r="B77" s="15"/>
+      <c r="C77" s="26"/>
+      <c r="D77" s="35"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="32"/>
+      <c r="H77" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="24"/>
+      <c r="B78" s="15"/>
+      <c r="C78" s="26"/>
+      <c r="D78" s="37"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="38"/>
+      <c r="G78" s="32"/>
+      <c r="H78" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="39"/>
+      <c r="B79" s="15"/>
+      <c r="C79" s="40"/>
+      <c r="D79" s="41"/>
+      <c r="E79" s="42">
+        <v>0</v>
+      </c>
+      <c r="F79" s="43"/>
+      <c r="G79" s="63"/>
+      <c r="H79" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I79" s="3"/>
+    </row>
+    <row r="80" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="44"/>
+      <c r="C80" s="45"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="46">
+        <f>SUM(E4:E79)</f>
+        <v>147799</v>
+      </c>
+      <c r="F80" s="47"/>
+      <c r="G80" s="47">
+        <f>SUM(G4:G79)</f>
+        <v>113897</v>
+      </c>
+      <c r="H80" s="48">
+        <f>SUM(H4:H79)</f>
+        <v>34258</v>
+      </c>
+      <c r="I80" s="3"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B81" s="44"/>
+      <c r="C81" s="45"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="49"/>
+      <c r="F81" s="50"/>
+      <c r="G81" s="64"/>
+      <c r="H81" s="51"/>
+      <c r="I81" s="3"/>
+    </row>
+    <row r="82" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B82" s="44"/>
+      <c r="C82" s="45"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="F82" s="50"/>
+      <c r="G82" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="H82" s="51"/>
+      <c r="I82" s="3"/>
+    </row>
+    <row r="83" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="44"/>
+      <c r="C83" s="45"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="52"/>
+      <c r="F83" s="50"/>
+      <c r="G83" s="53"/>
+      <c r="H83" s="51"/>
+      <c r="I83" s="3"/>
+    </row>
+    <row r="84" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B84" s="44"/>
+      <c r="C84" s="45"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="71">
+        <f>E80-G80</f>
+        <v>33902</v>
+      </c>
+      <c r="F84" s="72"/>
+      <c r="G84" s="73"/>
+      <c r="I84" s="3"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B85" s="44"/>
+      <c r="C85" s="45"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="49"/>
+      <c r="F85" s="50"/>
+      <c r="G85" s="64"/>
+      <c r="I85" s="3"/>
+    </row>
+    <row r="86" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B86" s="44"/>
+      <c r="C86" s="45"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="F86" s="74"/>
+      <c r="G86" s="74"/>
+      <c r="I86" s="3"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B87" s="44"/>
+      <c r="C87" s="45"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="49"/>
+      <c r="F87" s="50"/>
+      <c r="G87" s="64"/>
+      <c r="I87" s="3"/>
+    </row>
+    <row r="88" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A88" s="24"/>
+      <c r="B88" s="15"/>
+      <c r="C88" s="26"/>
+      <c r="D88" s="54"/>
+      <c r="E88" s="55"/>
+      <c r="F88" s="56"/>
+      <c r="G88" s="65"/>
+      <c r="I88" s="3"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B89" s="44"/>
+      <c r="C89" s="45"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="49"/>
+      <c r="F89" s="50"/>
+      <c r="G89" s="64"/>
+      <c r="I89" s="3"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B90" s="44"/>
+      <c r="C90" s="45"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="49"/>
+      <c r="F90" s="50"/>
+      <c r="G90" s="64"/>
+      <c r="I90" s="3"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B91" s="44"/>
+      <c r="C91" s="45"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="49"/>
+      <c r="F91" s="50"/>
+      <c r="G91" s="64"/>
+      <c r="I91" s="3"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B92" s="44"/>
+      <c r="C92" s="45"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="49"/>
+      <c r="F92" s="50"/>
+      <c r="G92" s="64"/>
+      <c r="I92" s="3"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B93" s="44"/>
+      <c r="C93" s="45"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="49"/>
+      <c r="F93" s="50"/>
+      <c r="G93" s="64"/>
+      <c r="I93" s="3"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B94" s="44"/>
+      <c r="C94" s="45"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="49"/>
+      <c r="F94" s="50"/>
+      <c r="G94" s="64"/>
+      <c r="I94" s="3"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B95" s="44"/>
+      <c r="C95" s="45"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="49"/>
+      <c r="F95" s="50"/>
+      <c r="G95" s="64"/>
+      <c r="I95" s="3"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B96" s="44"/>
+      <c r="C96" s="45"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="49"/>
+      <c r="F96" s="50"/>
+      <c r="G96" s="64"/>
+      <c r="I96" s="3"/>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B97" s="44"/>
+      <c r="C97" s="45"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="49"/>
+      <c r="F97" s="50"/>
+      <c r="G97" s="64"/>
+      <c r="I97" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="E86:G86"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #02  FEBRERO 2023/CREDITOS  HERRADURA   FEBRERO     2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #02  FEBRERO 2023/CREDITOS  HERRADURA   FEBRERO     2023.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="48">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    H E R R A D U R A </t>
   </si>
@@ -163,7 +163,16 @@
     <t>6-Feb-23--</t>
   </si>
   <si>
-    <t>5-Feb-23--7-Feb-23</t>
+    <t>5-Feb-23--7-Feb-23--9-Feb-23</t>
+  </si>
+  <si>
+    <t>9-Feb-23--10-Feb-23</t>
+  </si>
+  <si>
+    <t>10-Feb-23--11-Feb-23</t>
+  </si>
+  <si>
+    <t>11-Feb-23--12-Feb-23</t>
   </si>
 </sst>
 </file>
@@ -688,6 +697,12 @@
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="8" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -711,12 +726,6 @@
     </xf>
     <xf numFmtId="166" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1254,25 +1263,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="69"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="71"/>
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
-      <c r="B2" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
+      <c r="B2" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="61"/>
       <c r="H2" s="5"/>
       <c r="I2" s="3"/>
@@ -2989,10 +2998,10 @@
       <c r="E68" s="22">
         <v>16800</v>
       </c>
-      <c r="F68" s="75">
+      <c r="F68" s="67">
         <v>44962</v>
       </c>
-      <c r="G68" s="76">
+      <c r="G68" s="68">
         <v>16800</v>
       </c>
       <c r="H68" s="20">
@@ -3015,10 +3024,10 @@
       <c r="E69" s="22">
         <v>1547</v>
       </c>
-      <c r="F69" s="75">
+      <c r="F69" s="67">
         <v>44956</v>
       </c>
-      <c r="G69" s="76">
+      <c r="G69" s="68">
         <v>1547</v>
       </c>
       <c r="H69" s="20">
@@ -3094,10 +3103,10 @@
       <c r="E72" s="22">
         <v>7800</v>
       </c>
-      <c r="F72" s="75">
+      <c r="F72" s="67">
         <v>44956</v>
       </c>
-      <c r="G72" s="76">
+      <c r="G72" s="68">
         <v>7800</v>
       </c>
       <c r="H72" s="20">
@@ -3120,10 +3129,10 @@
       <c r="E73" s="22">
         <v>1248</v>
       </c>
-      <c r="F73" s="75">
+      <c r="F73" s="67">
         <v>44957</v>
       </c>
-      <c r="G73" s="76">
+      <c r="G73" s="68">
         <v>1248</v>
       </c>
       <c r="H73" s="20">
@@ -3146,10 +3155,10 @@
       <c r="E74" s="22">
         <v>4395</v>
       </c>
-      <c r="F74" s="75">
+      <c r="F74" s="67">
         <v>44956</v>
       </c>
-      <c r="G74" s="76">
+      <c r="G74" s="68">
         <v>4395</v>
       </c>
       <c r="H74" s="20">
@@ -3172,10 +3181,10 @@
       <c r="E75" s="22">
         <v>4906</v>
       </c>
-      <c r="F75" s="75">
+      <c r="F75" s="67">
         <v>44956</v>
       </c>
-      <c r="G75" s="76">
+      <c r="G75" s="68">
         <v>4906</v>
       </c>
       <c r="H75" s="20">
@@ -3295,12 +3304,12 @@
       <c r="B84" s="44"/>
       <c r="C84" s="45"/>
       <c r="D84" s="3"/>
-      <c r="E84" s="71">
+      <c r="E84" s="73">
         <f>E80-G80</f>
         <v>0</v>
       </c>
-      <c r="F84" s="72"/>
-      <c r="G84" s="73"/>
+      <c r="F84" s="74"/>
+      <c r="G84" s="75"/>
       <c r="I84" s="3"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -3316,11 +3325,11 @@
       <c r="B86" s="44"/>
       <c r="C86" s="45"/>
       <c r="D86" s="3"/>
-      <c r="E86" s="74" t="s">
+      <c r="E86" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="F86" s="74"/>
-      <c r="G86" s="74"/>
+      <c r="F86" s="76"/>
+      <c r="G86" s="76"/>
       <c r="I86" s="3"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -3443,8 +3452,8 @@
   </sheetPr>
   <dimension ref="A1:I97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3463,25 +3472,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="69"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="71"/>
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
-      <c r="B2" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
+      <c r="B2" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="61"/>
       <c r="H2" s="5"/>
       <c r="I2" s="3"/>
@@ -3840,11 +3849,15 @@
       <c r="E16" s="22">
         <v>15250</v>
       </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="32"/>
+      <c r="F16" s="23">
+        <v>44969</v>
+      </c>
+      <c r="G16" s="32">
+        <v>15250</v>
+      </c>
       <c r="H16" s="20">
         <f t="shared" si="0"/>
-        <v>15250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
@@ -3874,7 +3887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>44961</v>
       </c>
@@ -3893,15 +3906,15 @@
         <v>44</v>
       </c>
       <c r="G18" s="32">
-        <f>1900+1000</f>
-        <v>2900</v>
+        <f>1900+1000+641</f>
+        <v>3541</v>
       </c>
       <c r="H18" s="20">
         <f t="shared" si="0"/>
-        <v>641</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>44961</v>
       </c>
@@ -3916,14 +3929,18 @@
       <c r="E19" s="22">
         <v>870</v>
       </c>
-      <c r="F19" s="23"/>
-      <c r="G19" s="32"/>
+      <c r="F19" s="23">
+        <v>44969</v>
+      </c>
+      <c r="G19" s="32">
+        <v>870</v>
+      </c>
       <c r="H19" s="20">
         <f t="shared" si="0"/>
-        <v>870</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>44962</v>
       </c>
@@ -3938,11 +3955,16 @@
       <c r="E20" s="22">
         <v>2855</v>
       </c>
-      <c r="F20" s="23"/>
-      <c r="G20" s="32"/>
+      <c r="F20" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="32">
+        <f>1200+1655</f>
+        <v>2855</v>
+      </c>
       <c r="H20" s="20">
         <f t="shared" si="0"/>
-        <v>2855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -3960,11 +3982,15 @@
       <c r="E21" s="22">
         <v>211</v>
       </c>
-      <c r="F21" s="23"/>
-      <c r="G21" s="32"/>
+      <c r="F21" s="23">
+        <v>44969</v>
+      </c>
+      <c r="G21" s="32">
+        <v>211</v>
+      </c>
       <c r="H21" s="20">
         <f t="shared" si="0"/>
-        <v>211</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -4035,11 +4061,15 @@
       <c r="E24" s="22">
         <v>2009</v>
       </c>
-      <c r="F24" s="23"/>
-      <c r="G24" s="32"/>
+      <c r="F24" s="23">
+        <v>44965</v>
+      </c>
+      <c r="G24" s="32">
+        <v>2009</v>
+      </c>
       <c r="H24" s="20">
         <f t="shared" si="0"/>
-        <v>2009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -4057,11 +4087,15 @@
       <c r="E25" s="22">
         <v>2370</v>
       </c>
-      <c r="F25" s="23"/>
-      <c r="G25" s="32"/>
+      <c r="F25" s="23">
+        <v>44968</v>
+      </c>
+      <c r="G25" s="32">
+        <v>2370</v>
+      </c>
       <c r="H25" s="20">
         <f t="shared" si="0"/>
-        <v>2370</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -4079,11 +4113,15 @@
       <c r="E26" s="22">
         <v>5280</v>
       </c>
-      <c r="F26" s="23"/>
-      <c r="G26" s="32"/>
+      <c r="F26" s="23">
+        <v>44966</v>
+      </c>
+      <c r="G26" s="32">
+        <v>5280</v>
+      </c>
       <c r="H26" s="20">
         <f t="shared" si="0"/>
-        <v>5280</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -4101,219 +4139,327 @@
       <c r="E27" s="22">
         <v>3720</v>
       </c>
-      <c r="F27" s="23"/>
-      <c r="G27" s="32"/>
+      <c r="F27" s="23">
+        <v>44966</v>
+      </c>
+      <c r="G27" s="32">
+        <v>3720</v>
+      </c>
       <c r="H27" s="20">
         <f t="shared" si="0"/>
-        <v>3720</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="14">
+        <v>44966</v>
+      </c>
       <c r="B28" s="15">
         <f t="shared" si="1"/>
         <v>1065</v>
       </c>
       <c r="C28" s="26"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="32"/>
+      <c r="D28" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="22">
+        <v>1805</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="G28" s="32">
+        <f>1500+305</f>
+        <v>1805</v>
+      </c>
       <c r="H28" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
+      <c r="A29" s="14">
+        <v>44966</v>
+      </c>
       <c r="B29" s="15">
         <f t="shared" si="1"/>
         <v>1066</v>
       </c>
       <c r="C29" s="26"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="32"/>
+      <c r="D29" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="22">
+        <v>2168</v>
+      </c>
+      <c r="F29" s="23">
+        <v>44967</v>
+      </c>
+      <c r="G29" s="32">
+        <v>2168</v>
+      </c>
       <c r="H29" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
+      <c r="A30" s="14">
+        <v>44967</v>
+      </c>
       <c r="B30" s="15">
         <f t="shared" si="1"/>
         <v>1067</v>
       </c>
       <c r="C30" s="26"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="22"/>
+      <c r="D30" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="22">
+        <v>341</v>
+      </c>
       <c r="F30" s="23"/>
       <c r="G30" s="32"/>
       <c r="H30" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>341</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
+      <c r="A31" s="14">
+        <v>44967</v>
+      </c>
       <c r="B31" s="15">
         <f t="shared" si="1"/>
         <v>1068</v>
       </c>
       <c r="C31" s="26"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="32"/>
+      <c r="D31" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="22">
+        <v>2279</v>
+      </c>
+      <c r="F31" s="23">
+        <v>44968</v>
+      </c>
+      <c r="G31" s="32">
+        <v>2279</v>
+      </c>
       <c r="H31" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
+      <c r="A32" s="14">
+        <v>44967</v>
+      </c>
       <c r="B32" s="15">
         <f t="shared" si="1"/>
         <v>1069</v>
       </c>
       <c r="C32" s="26"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="22"/>
+      <c r="D32" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="22">
+        <v>2913</v>
+      </c>
       <c r="F32" s="23"/>
       <c r="G32" s="32"/>
       <c r="H32" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
+        <v>2913</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="14">
+        <v>44967</v>
+      </c>
       <c r="B33" s="15">
         <f t="shared" si="1"/>
         <v>1070</v>
       </c>
       <c r="C33" s="26"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="32"/>
+      <c r="D33" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="22">
+        <v>4477</v>
+      </c>
+      <c r="F33" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="G33" s="32">
+        <f>4077+400</f>
+        <v>4477</v>
+      </c>
       <c r="H33" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
+      <c r="A34" s="14">
+        <v>44967</v>
+      </c>
       <c r="B34" s="15">
         <f t="shared" si="1"/>
         <v>1071</v>
       </c>
       <c r="C34" s="26"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="32"/>
+      <c r="D34" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="22">
+        <v>5832</v>
+      </c>
+      <c r="F34" s="23">
+        <v>44968</v>
+      </c>
+      <c r="G34" s="32">
+        <v>5832</v>
+      </c>
       <c r="H34" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
+      <c r="A35" s="14">
+        <v>44967</v>
+      </c>
       <c r="B35" s="15">
         <f t="shared" si="1"/>
         <v>1072</v>
       </c>
       <c r="C35" s="26"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="22"/>
+      <c r="D35" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="22">
+        <v>17130</v>
+      </c>
       <c r="F35" s="23"/>
       <c r="G35" s="32"/>
       <c r="H35" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17130</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
+      <c r="A36" s="14">
+        <v>44968</v>
+      </c>
       <c r="B36" s="15">
         <f t="shared" si="1"/>
         <v>1073</v>
       </c>
       <c r="C36" s="26"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="22"/>
+      <c r="D36" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="22">
+        <v>2533</v>
+      </c>
       <c r="F36" s="23"/>
       <c r="G36" s="32"/>
       <c r="H36" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
+      <c r="A37" s="14">
+        <v>44968</v>
+      </c>
       <c r="B37" s="15">
         <f t="shared" si="1"/>
         <v>1074</v>
       </c>
       <c r="C37" s="26"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="32"/>
+      <c r="D37" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="22">
+        <v>3208</v>
+      </c>
+      <c r="F37" s="23">
+        <v>44969</v>
+      </c>
+      <c r="G37" s="32">
+        <v>3208</v>
+      </c>
       <c r="H37" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
+      <c r="A38" s="14">
+        <v>44968</v>
+      </c>
       <c r="B38" s="15">
         <f t="shared" si="1"/>
         <v>1075</v>
       </c>
       <c r="C38" s="26"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="22"/>
+      <c r="D38" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" s="22">
+        <v>11200</v>
+      </c>
       <c r="F38" s="23"/>
       <c r="G38" s="32"/>
       <c r="H38" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11200</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
+      <c r="A39" s="14">
+        <v>44969</v>
+      </c>
       <c r="B39" s="15">
         <f t="shared" si="1"/>
         <v>1076</v>
       </c>
       <c r="C39" s="26"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="22"/>
+      <c r="D39" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="22">
+        <v>8000</v>
+      </c>
       <c r="F39" s="23"/>
       <c r="G39" s="32"/>
       <c r="H39" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
+      <c r="A40" s="14">
+        <v>44969</v>
+      </c>
       <c r="B40" s="15">
         <f t="shared" si="1"/>
         <v>1077</v>
       </c>
       <c r="C40" s="26"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="22"/>
+      <c r="D40" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="22">
+        <v>5096</v>
+      </c>
       <c r="F40" s="23"/>
       <c r="G40" s="32"/>
       <c r="H40" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5096</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -4936,16 +5082,16 @@
       <c r="D80" s="3"/>
       <c r="E80" s="46">
         <f>SUM(E4:E79)</f>
-        <v>147799</v>
+        <v>214781</v>
       </c>
       <c r="F80" s="47"/>
       <c r="G80" s="47">
         <f>SUM(G4:G79)</f>
-        <v>113897</v>
+        <v>166872</v>
       </c>
       <c r="H80" s="48">
         <f>SUM(H4:H79)</f>
-        <v>34258</v>
+        <v>48265</v>
       </c>
       <c r="I80" s="3"/>
     </row>
@@ -4987,12 +5133,12 @@
       <c r="B84" s="44"/>
       <c r="C84" s="45"/>
       <c r="D84" s="3"/>
-      <c r="E84" s="71">
+      <c r="E84" s="73">
         <f>E80-G80</f>
-        <v>33902</v>
-      </c>
-      <c r="F84" s="72"/>
-      <c r="G84" s="73"/>
+        <v>47909</v>
+      </c>
+      <c r="F84" s="74"/>
+      <c r="G84" s="75"/>
       <c r="I84" s="3"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -5008,11 +5154,11 @@
       <c r="B86" s="44"/>
       <c r="C86" s="45"/>
       <c r="D86" s="3"/>
-      <c r="E86" s="74" t="s">
+      <c r="E86" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="F86" s="74"/>
-      <c r="G86" s="74"/>
+      <c r="F86" s="76"/>
+      <c r="G86" s="76"/>
       <c r="I86" s="3"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #02  FEBRERO 2023/CREDITOS  HERRADURA   FEBRERO     2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #02  FEBRERO 2023/CREDITOS  HERRADURA   FEBRERO     2023.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="61">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    H E R R A D U R A </t>
   </si>
@@ -160,9 +160,6 @@
     <t>4-Feb-23--5-Feb-23</t>
   </si>
   <si>
-    <t>6-Feb-23--</t>
-  </si>
-  <si>
     <t>5-Feb-23--7-Feb-23--9-Feb-23</t>
   </si>
   <si>
@@ -173,6 +170,48 @@
   </si>
   <si>
     <t>11-Feb-23--12-Feb-23</t>
+  </si>
+  <si>
+    <t>6-Feb-23--13-Feb-23</t>
+  </si>
+  <si>
+    <t>14-Feb-23--15-Feb-23</t>
+  </si>
+  <si>
+    <t>13-Feb-23--16-Feb-23</t>
+  </si>
+  <si>
+    <t>17-feb-23--18-Feb-23</t>
+  </si>
+  <si>
+    <t>18-Feb-23--19-Feb-23</t>
+  </si>
+  <si>
+    <t>16-feb-23--19-Feb-23</t>
+  </si>
+  <si>
+    <t>20-Feb-23--</t>
+  </si>
+  <si>
+    <t>20-Feb-23--22-Feb-23</t>
+  </si>
+  <si>
+    <t>23-Feb-23--25-Feb-23</t>
+  </si>
+  <si>
+    <t>25-Feb-23--26-Feb-23</t>
+  </si>
+  <si>
+    <t>MARCELO 2</t>
+  </si>
+  <si>
+    <t>26-Feb-23--27-Feb-23</t>
+  </si>
+  <si>
+    <t>27-Feb-23--</t>
+  </si>
+  <si>
+    <t>28-Feb-23--</t>
   </si>
 </sst>
 </file>
@@ -533,7 +572,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -726,6 +765,22 @@
     </xf>
     <xf numFmtId="166" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -869,13 +924,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>647703</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>152402</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -922,13 +977,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>561977</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>123829</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>161927</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3450,10 +3505,10 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:I97"/>
+  <dimension ref="A1:I111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3541,7 +3596,7 @@
         <v>5351</v>
       </c>
       <c r="H4" s="20">
-        <f t="shared" ref="H4:H79" si="0">E4-G4</f>
+        <f t="shared" ref="H4:H93" si="0">E4-G4</f>
         <v>0</v>
       </c>
       <c r="I4" s="3"/>
@@ -3903,7 +3958,7 @@
         <v>3541</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G18" s="32">
         <f>1900+1000+641</f>
@@ -3956,7 +4011,7 @@
         <v>2855</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G20" s="32">
         <f>1200+1655</f>
@@ -3993,7 +4048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>44963</v>
       </c>
@@ -4008,16 +4063,16 @@
       <c r="E22" s="22">
         <v>55696</v>
       </c>
-      <c r="F22" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="G22" s="32">
-        <f>55000</f>
-        <v>55000</v>
+      <c r="F22" s="82" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" s="80">
+        <f>55000+696</f>
+        <v>55696</v>
       </c>
       <c r="H22" s="20">
         <f t="shared" si="0"/>
-        <v>696</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -4166,7 +4221,7 @@
         <v>1805</v>
       </c>
       <c r="F28" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G28" s="32">
         <f>1500+305</f>
@@ -4218,11 +4273,15 @@
       <c r="E30" s="22">
         <v>341</v>
       </c>
-      <c r="F30" s="23"/>
-      <c r="G30" s="32"/>
+      <c r="F30" s="82">
+        <v>44971</v>
+      </c>
+      <c r="G30" s="80">
+        <v>341</v>
+      </c>
       <c r="H30" s="20">
         <f t="shared" si="0"/>
-        <v>341</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -4251,7 +4310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
         <v>44967</v>
       </c>
@@ -4266,11 +4325,16 @@
       <c r="E32" s="22">
         <v>2913</v>
       </c>
-      <c r="F32" s="23"/>
-      <c r="G32" s="32"/>
+      <c r="F32" s="82" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="80">
+        <f>1200+1713</f>
+        <v>2913</v>
+      </c>
       <c r="H32" s="20">
         <f t="shared" si="0"/>
-        <v>2913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
@@ -4289,7 +4353,7 @@
         <v>4477</v>
       </c>
       <c r="F33" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G33" s="32">
         <f>4077+400</f>
@@ -4341,11 +4405,15 @@
       <c r="E35" s="22">
         <v>17130</v>
       </c>
-      <c r="F35" s="23"/>
-      <c r="G35" s="32"/>
+      <c r="F35" s="23">
+        <v>44976</v>
+      </c>
+      <c r="G35" s="32">
+        <v>17130</v>
+      </c>
       <c r="H35" s="20">
         <f t="shared" si="0"/>
-        <v>17130</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -4363,11 +4431,15 @@
       <c r="E36" s="22">
         <v>2533</v>
       </c>
-      <c r="F36" s="23"/>
-      <c r="G36" s="32"/>
+      <c r="F36" s="23">
+        <v>44974</v>
+      </c>
+      <c r="G36" s="32">
+        <v>2533</v>
+      </c>
       <c r="H36" s="20">
         <f t="shared" si="0"/>
-        <v>2533</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -4411,11 +4483,15 @@
       <c r="E38" s="22">
         <v>11200</v>
       </c>
-      <c r="F38" s="23"/>
-      <c r="G38" s="32"/>
+      <c r="F38" s="82">
+        <v>44970</v>
+      </c>
+      <c r="G38" s="32">
+        <v>11200</v>
+      </c>
       <c r="H38" s="20">
         <f t="shared" si="0"/>
-        <v>11200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -4433,11 +4509,15 @@
       <c r="E39" s="22">
         <v>8000</v>
       </c>
-      <c r="F39" s="23"/>
-      <c r="G39" s="32"/>
+      <c r="F39" s="82">
+        <v>44970</v>
+      </c>
+      <c r="G39" s="32">
+        <v>8000</v>
+      </c>
       <c r="H39" s="20">
         <f t="shared" si="0"/>
-        <v>8000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -4455,783 +4535,1373 @@
       <c r="E40" s="22">
         <v>5096</v>
       </c>
-      <c r="F40" s="23"/>
-      <c r="G40" s="32"/>
+      <c r="F40" s="82">
+        <v>44970</v>
+      </c>
+      <c r="G40" s="32">
+        <v>5096</v>
+      </c>
       <c r="H40" s="20">
         <f t="shared" si="0"/>
-        <v>5096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
+      <c r="A41" s="77">
+        <v>44970</v>
+      </c>
       <c r="B41" s="15">
         <f t="shared" si="1"/>
         <v>1078</v>
       </c>
       <c r="C41" s="26"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="32"/>
+      <c r="D41" s="81" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="22">
+        <v>357</v>
+      </c>
+      <c r="F41" s="82">
+        <v>44971</v>
+      </c>
+      <c r="G41" s="80">
+        <v>357</v>
+      </c>
       <c r="H41" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
+    <row r="42" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="77">
+        <v>44970</v>
+      </c>
       <c r="B42" s="15">
         <f t="shared" si="1"/>
         <v>1079</v>
       </c>
       <c r="C42" s="26"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="32"/>
+      <c r="D42" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="22">
+        <v>1947</v>
+      </c>
+      <c r="F42" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="G42" s="80">
+        <f>600+1347</f>
+        <v>1947</v>
+      </c>
       <c r="H42" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
+      <c r="A43" s="77">
+        <v>44970</v>
+      </c>
       <c r="B43" s="15">
         <f t="shared" si="1"/>
         <v>1080</v>
       </c>
       <c r="C43" s="26"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="32"/>
+      <c r="D43" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="22">
+        <v>5832</v>
+      </c>
+      <c r="F43" s="82">
+        <v>44971</v>
+      </c>
+      <c r="G43" s="80">
+        <v>5832</v>
+      </c>
       <c r="H43" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
+      <c r="A44" s="77">
+        <v>44970</v>
+      </c>
       <c r="B44" s="15">
         <f t="shared" si="1"/>
         <v>1081</v>
       </c>
       <c r="C44" s="26"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="32"/>
+      <c r="D44" s="81" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="22">
+        <v>4280</v>
+      </c>
+      <c r="F44" s="82">
+        <v>44971</v>
+      </c>
+      <c r="G44" s="80">
+        <v>4280</v>
+      </c>
       <c r="H44" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
+      <c r="A45" s="77">
+        <v>44970</v>
+      </c>
       <c r="B45" s="15">
         <f t="shared" si="1"/>
         <v>1082</v>
       </c>
       <c r="C45" s="26"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="32"/>
+      <c r="D45" s="81" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" s="22">
+        <v>4072</v>
+      </c>
+      <c r="F45" s="82">
+        <v>44973</v>
+      </c>
+      <c r="G45" s="80">
+        <v>4072</v>
+      </c>
       <c r="H45" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
+    <row r="46" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="77">
+        <v>44971</v>
+      </c>
       <c r="B46" s="15">
         <f t="shared" si="1"/>
         <v>1083</v>
       </c>
       <c r="C46" s="26"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="32"/>
+      <c r="D46" s="81" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" s="22">
+        <v>2100</v>
+      </c>
+      <c r="F46" s="82" t="s">
+        <v>48</v>
+      </c>
+      <c r="G46" s="80">
+        <f>1559+541</f>
+        <v>2100</v>
+      </c>
       <c r="H46" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
+    <row r="47" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="77">
+        <v>44971</v>
+      </c>
       <c r="B47" s="15">
         <f t="shared" si="1"/>
         <v>1084</v>
       </c>
       <c r="C47" s="28"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="32"/>
+      <c r="D47" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" s="22">
+        <v>1866</v>
+      </c>
+      <c r="F47" s="23">
+        <v>44975</v>
+      </c>
+      <c r="G47" s="80">
+        <v>1866</v>
+      </c>
       <c r="H47" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
+    <row r="48" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="77">
+        <v>44971</v>
+      </c>
       <c r="B48" s="15">
         <f t="shared" si="1"/>
         <v>1085</v>
       </c>
       <c r="C48" s="29"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="32"/>
+      <c r="D48" s="81" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="22">
+        <v>4328</v>
+      </c>
+      <c r="F48" s="82">
+        <v>44973</v>
+      </c>
+      <c r="G48" s="80">
+        <v>4328</v>
+      </c>
       <c r="H48" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
+    <row r="49" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="77">
+        <v>44940</v>
+      </c>
       <c r="B49" s="15">
         <f t="shared" si="1"/>
         <v>1086</v>
       </c>
       <c r="C49" s="26"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="32"/>
+      <c r="D49" s="81" t="s">
+        <v>24</v>
+      </c>
+      <c r="E49" s="22">
+        <v>219</v>
+      </c>
+      <c r="F49" s="23">
+        <v>44976</v>
+      </c>
+      <c r="G49" s="80">
+        <v>219</v>
+      </c>
       <c r="H49" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
+    <row r="50" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="77">
+        <v>44973</v>
+      </c>
       <c r="B50" s="15">
         <f t="shared" si="1"/>
         <v>1087</v>
       </c>
       <c r="C50" s="26"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="32"/>
+      <c r="D50" s="81" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" s="22">
+        <v>3685</v>
+      </c>
+      <c r="F50" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="G50" s="80">
+        <f>3485+200</f>
+        <v>3685</v>
+      </c>
       <c r="H50" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="14"/>
+    <row r="51" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="77">
+        <v>44973</v>
+      </c>
       <c r="B51" s="15">
         <f t="shared" si="1"/>
         <v>1088</v>
       </c>
       <c r="C51" s="26"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="32"/>
+      <c r="D51" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" s="22">
+        <v>2394</v>
+      </c>
+      <c r="F51" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="G51" s="80">
+        <f>1300+1094</f>
+        <v>2394</v>
+      </c>
       <c r="H51" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="14"/>
+      <c r="A52" s="77">
+        <v>44973</v>
+      </c>
       <c r="B52" s="15">
         <f t="shared" si="1"/>
         <v>1089</v>
       </c>
       <c r="C52" s="26"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="32"/>
+      <c r="D52" s="81" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="22">
+        <v>3224</v>
+      </c>
+      <c r="F52" s="23">
+        <v>44974</v>
+      </c>
+      <c r="G52" s="80">
+        <v>3224</v>
+      </c>
       <c r="H52" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
+      <c r="A53" s="77">
+        <v>44974</v>
+      </c>
       <c r="B53" s="15">
         <f t="shared" si="1"/>
         <v>1090</v>
       </c>
       <c r="C53" s="26"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="32"/>
+      <c r="D53" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="22">
+        <v>3096</v>
+      </c>
+      <c r="F53" s="23">
+        <v>44975</v>
+      </c>
+      <c r="G53" s="80">
+        <v>3096</v>
+      </c>
       <c r="H53" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="14"/>
+      <c r="A54" s="77">
+        <v>44974</v>
+      </c>
       <c r="B54" s="15">
         <f t="shared" si="1"/>
         <v>1091</v>
       </c>
       <c r="C54" s="26"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="32"/>
+      <c r="D54" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" s="22">
+        <v>1749</v>
+      </c>
+      <c r="F54" s="23">
+        <v>44976</v>
+      </c>
+      <c r="G54" s="80">
+        <v>1749</v>
+      </c>
       <c r="H54" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="30"/>
+      <c r="A55" s="78">
+        <v>44974</v>
+      </c>
       <c r="B55" s="15">
         <f t="shared" si="1"/>
         <v>1092</v>
       </c>
       <c r="C55" s="26"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="31"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="32"/>
+      <c r="D55" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E55" s="31">
+        <v>15510</v>
+      </c>
+      <c r="F55" s="23">
+        <v>44983</v>
+      </c>
+      <c r="G55" s="80">
+        <v>15310</v>
+      </c>
       <c r="H55" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="14"/>
+      <c r="A56" s="77">
+        <v>44975</v>
+      </c>
       <c r="B56" s="15">
         <f t="shared" si="1"/>
         <v>1093</v>
       </c>
       <c r="C56" s="26"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="32"/>
+      <c r="D56" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="22">
+        <v>271</v>
+      </c>
+      <c r="F56" s="23">
+        <v>44982</v>
+      </c>
+      <c r="G56" s="80">
+        <v>271</v>
+      </c>
       <c r="H56" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
+    <row r="57" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="77">
+        <v>44975</v>
+      </c>
       <c r="B57" s="15">
         <f t="shared" si="1"/>
         <v>1094</v>
       </c>
       <c r="C57" s="26"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="32"/>
+      <c r="D57" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" s="22">
+        <v>2997</v>
+      </c>
+      <c r="F57" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="G57" s="80">
+        <f>900+2097</f>
+        <v>2997</v>
+      </c>
       <c r="H57" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="14"/>
+      <c r="A58" s="77">
+        <v>44975</v>
+      </c>
       <c r="B58" s="15">
         <f t="shared" si="1"/>
         <v>1095</v>
       </c>
       <c r="C58" s="26"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="32"/>
+      <c r="D58" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E58" s="22">
+        <v>1620</v>
+      </c>
+      <c r="F58" s="23">
+        <v>44976</v>
+      </c>
+      <c r="G58" s="80">
+        <v>1620</v>
+      </c>
       <c r="H58" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="14"/>
+      <c r="A59" s="77">
+        <v>44975</v>
+      </c>
       <c r="B59" s="15">
         <f t="shared" si="1"/>
         <v>1096</v>
       </c>
       <c r="C59" s="26"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="32"/>
+      <c r="D59" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" s="22">
+        <v>5024</v>
+      </c>
+      <c r="F59" s="23">
+        <v>44976</v>
+      </c>
+      <c r="G59" s="80">
+        <v>5024</v>
+      </c>
       <c r="H59" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="14"/>
+      <c r="A60" s="77">
+        <v>44975</v>
+      </c>
       <c r="B60" s="15">
         <f t="shared" si="1"/>
         <v>1097</v>
       </c>
       <c r="C60" s="26"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="23"/>
-      <c r="G60" s="32"/>
+      <c r="D60" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E60" s="22">
+        <v>11200</v>
+      </c>
+      <c r="F60" s="23">
+        <v>44977</v>
+      </c>
+      <c r="G60" s="80">
+        <v>11200</v>
+      </c>
       <c r="H60" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="14"/>
+      <c r="A61" s="77">
+        <v>44976</v>
+      </c>
       <c r="B61" s="15">
         <f t="shared" si="1"/>
         <v>1098</v>
       </c>
       <c r="C61" s="26"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="32"/>
+      <c r="D61" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61" s="22">
+        <v>1450</v>
+      </c>
+      <c r="F61" s="23">
+        <v>44981</v>
+      </c>
+      <c r="G61" s="80">
+        <v>1450</v>
+      </c>
       <c r="H61" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="14"/>
+      <c r="A62" s="77">
+        <v>44976</v>
+      </c>
       <c r="B62" s="15">
         <f t="shared" si="1"/>
         <v>1099</v>
       </c>
       <c r="C62" s="26"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="32"/>
+      <c r="D62" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" s="22">
+        <v>4670</v>
+      </c>
+      <c r="F62" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="G62" s="80">
+        <f>4670</f>
+        <v>4670</v>
+      </c>
       <c r="H62" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="14"/>
+      <c r="A63" s="77">
+        <v>44977</v>
+      </c>
       <c r="B63" s="15">
         <f t="shared" si="1"/>
         <v>1100</v>
       </c>
       <c r="C63" s="26"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="32"/>
+      <c r="D63" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63" s="22">
+        <v>5080</v>
+      </c>
+      <c r="F63" s="23">
+        <v>44978</v>
+      </c>
+      <c r="G63" s="80">
+        <v>5080</v>
+      </c>
       <c r="H63" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="14"/>
+      <c r="A64" s="77">
+        <v>44977</v>
+      </c>
       <c r="B64" s="15">
         <f t="shared" si="1"/>
         <v>1101</v>
       </c>
       <c r="C64" s="26"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="32"/>
+      <c r="D64" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E64" s="22">
+        <v>1000</v>
+      </c>
+      <c r="F64" s="23">
+        <v>44978</v>
+      </c>
+      <c r="G64" s="80">
+        <v>1000</v>
+      </c>
       <c r="H64" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="24"/>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="79">
+        <v>44977</v>
+      </c>
       <c r="B65" s="15">
         <f t="shared" si="1"/>
         <v>1102</v>
       </c>
       <c r="C65" s="26"/>
-      <c r="D65" s="35"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="32"/>
+      <c r="D65" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" s="22">
+        <v>3620</v>
+      </c>
+      <c r="F65" s="23">
+        <v>44978</v>
+      </c>
+      <c r="G65" s="80">
+        <v>3620</v>
+      </c>
       <c r="H65" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="24"/>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="79">
+        <v>44978</v>
+      </c>
       <c r="B66" s="15">
         <f t="shared" si="1"/>
         <v>1103</v>
       </c>
       <c r="C66" s="26"/>
-      <c r="D66" s="35"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="23"/>
-      <c r="G66" s="32"/>
+      <c r="D66" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E66" s="22">
+        <v>9657</v>
+      </c>
+      <c r="F66" s="23">
+        <v>44980</v>
+      </c>
+      <c r="G66" s="80">
+        <v>9657</v>
+      </c>
       <c r="H66" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="24"/>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="79">
+        <v>44978</v>
+      </c>
       <c r="B67" s="15">
         <f t="shared" si="1"/>
         <v>1104</v>
       </c>
       <c r="C67" s="26"/>
-      <c r="D67" s="35"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="23"/>
-      <c r="G67" s="32"/>
+      <c r="D67" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" s="22">
+        <v>3318</v>
+      </c>
+      <c r="F67" s="23">
+        <v>44979</v>
+      </c>
+      <c r="G67" s="80">
+        <v>3318</v>
+      </c>
       <c r="H67" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="24"/>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="79">
+        <v>44978</v>
+      </c>
       <c r="B68" s="15">
         <f t="shared" si="1"/>
         <v>1105</v>
       </c>
       <c r="C68" s="26"/>
-      <c r="D68" s="35"/>
-      <c r="E68" s="22"/>
+      <c r="D68" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" s="22">
+        <v>5400</v>
+      </c>
       <c r="F68" s="23"/>
-      <c r="G68" s="32"/>
+      <c r="G68" s="80"/>
       <c r="H68" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="24"/>
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="79">
+        <v>44979</v>
+      </c>
       <c r="B69" s="15">
         <f t="shared" si="1"/>
         <v>1106</v>
       </c>
       <c r="C69" s="26"/>
-      <c r="D69" s="35"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="23"/>
-      <c r="G69" s="32"/>
+      <c r="D69" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69" s="22">
+        <v>2999</v>
+      </c>
+      <c r="F69" s="23">
+        <v>44980</v>
+      </c>
+      <c r="G69" s="80">
+        <v>2999</v>
+      </c>
       <c r="H69" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="24"/>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="79">
+        <v>44979</v>
+      </c>
       <c r="B70" s="15">
-        <f t="shared" ref="B70:B75" si="2">B69+1</f>
+        <f t="shared" ref="B70:B91" si="2">B69+1</f>
         <v>1107</v>
       </c>
       <c r="C70" s="26"/>
-      <c r="D70" s="35"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="23"/>
-      <c r="G70" s="32"/>
+      <c r="D70" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70" s="22">
+        <v>728</v>
+      </c>
+      <c r="F70" s="23">
+        <v>44981</v>
+      </c>
+      <c r="G70" s="80">
+        <v>728</v>
+      </c>
       <c r="H70" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="24"/>
+    <row r="71" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="79">
+        <v>44980</v>
+      </c>
       <c r="B71" s="15">
         <f t="shared" si="2"/>
         <v>1108</v>
       </c>
       <c r="C71" s="26"/>
-      <c r="D71" s="35"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="23"/>
-      <c r="G71" s="32"/>
+      <c r="D71" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E71" s="22">
+        <v>566</v>
+      </c>
+      <c r="F71" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="G71" s="80">
+        <f>225+341</f>
+        <v>566</v>
+      </c>
       <c r="H71" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="24"/>
+    <row r="72" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A72" s="79">
+        <v>44980</v>
+      </c>
       <c r="B72" s="15">
         <f t="shared" si="2"/>
         <v>1109</v>
       </c>
       <c r="C72" s="26"/>
-      <c r="D72" s="35"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="23"/>
-      <c r="G72" s="32"/>
+      <c r="D72" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E72" s="22">
+        <v>2332</v>
+      </c>
+      <c r="F72" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G72" s="80">
+        <f>800+1532</f>
+        <v>2332</v>
+      </c>
       <c r="H72" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="24"/>
+    <row r="73" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="79">
+        <v>44980</v>
+      </c>
       <c r="B73" s="15">
         <f t="shared" si="2"/>
         <v>1110</v>
       </c>
       <c r="C73" s="26"/>
-      <c r="D73" s="35"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="23"/>
-      <c r="G73" s="32"/>
+      <c r="D73" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E73" s="22">
+        <v>9086</v>
+      </c>
+      <c r="F73" s="23">
+        <v>44981</v>
+      </c>
+      <c r="G73" s="80">
+        <v>9086</v>
+      </c>
       <c r="H73" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="24"/>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="79">
+        <v>44980</v>
+      </c>
       <c r="B74" s="15">
         <f t="shared" si="2"/>
         <v>1111</v>
       </c>
       <c r="C74" s="26"/>
-      <c r="D74" s="35"/>
-      <c r="E74" s="22"/>
-      <c r="F74" s="23"/>
-      <c r="G74" s="32"/>
+      <c r="D74" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74" s="22">
+        <v>2419</v>
+      </c>
+      <c r="F74" s="23">
+        <v>44981</v>
+      </c>
+      <c r="G74" s="80">
+        <v>2419</v>
+      </c>
       <c r="H74" s="20">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="24"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A75" s="79">
+        <v>44981</v>
+      </c>
       <c r="B75" s="15">
         <f t="shared" si="2"/>
         <v>1112</v>
       </c>
       <c r="C75" s="26"/>
-      <c r="D75" s="35"/>
-      <c r="E75" s="22"/>
-      <c r="F75" s="23"/>
-      <c r="G75" s="32"/>
+      <c r="D75" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E75" s="22">
+        <v>1750</v>
+      </c>
+      <c r="F75" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="G75" s="80">
+        <f>1000+750</f>
+        <v>1750</v>
+      </c>
       <c r="H75" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="36"/>
-      <c r="B76" s="15"/>
+    <row r="76" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="79">
+        <v>44981</v>
+      </c>
+      <c r="B76" s="15">
+        <f t="shared" si="2"/>
+        <v>1113</v>
+      </c>
       <c r="C76" s="26"/>
-      <c r="D76" s="35"/>
-      <c r="E76" s="22"/>
-      <c r="F76" s="23"/>
-      <c r="G76" s="32"/>
+      <c r="D76" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76" s="22">
+        <v>3091</v>
+      </c>
+      <c r="F76" s="23">
+        <v>44982</v>
+      </c>
+      <c r="G76" s="80">
+        <v>3091</v>
+      </c>
       <c r="H76" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="36"/>
-      <c r="B77" s="15"/>
+    <row r="77" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="79">
+        <v>44981</v>
+      </c>
+      <c r="B77" s="15">
+        <f t="shared" si="2"/>
+        <v>1114</v>
+      </c>
       <c r="C77" s="26"/>
-      <c r="D77" s="35"/>
-      <c r="E77" s="22"/>
+      <c r="D77" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E77" s="22">
+        <v>8100</v>
+      </c>
       <c r="F77" s="23"/>
-      <c r="G77" s="32"/>
+      <c r="G77" s="80"/>
       <c r="H77" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="24"/>
-      <c r="B78" s="15"/>
+        <v>8100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="79">
+        <v>44981</v>
+      </c>
+      <c r="B78" s="15">
+        <f t="shared" si="2"/>
+        <v>1115</v>
+      </c>
       <c r="C78" s="26"/>
-      <c r="D78" s="37"/>
-      <c r="E78" s="22"/>
-      <c r="F78" s="38"/>
-      <c r="G78" s="32"/>
+      <c r="D78" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E78" s="22">
+        <v>5125</v>
+      </c>
+      <c r="F78" s="23">
+        <v>44982</v>
+      </c>
+      <c r="G78" s="80">
+        <v>5125</v>
+      </c>
       <c r="H78" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="39"/>
-      <c r="B79" s="15"/>
-      <c r="C79" s="40"/>
-      <c r="D79" s="41"/>
-      <c r="E79" s="42">
-        <v>0</v>
-      </c>
-      <c r="F79" s="43"/>
-      <c r="G79" s="63"/>
+    <row r="79" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="79">
+        <v>44981</v>
+      </c>
+      <c r="B79" s="15">
+        <f t="shared" si="2"/>
+        <v>1116</v>
+      </c>
+      <c r="C79" s="26"/>
+      <c r="D79" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E79" s="22">
+        <v>11200</v>
+      </c>
+      <c r="F79" s="23">
+        <v>44984</v>
+      </c>
+      <c r="G79" s="80">
+        <v>11200</v>
+      </c>
       <c r="H79" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I79" s="3"/>
-    </row>
-    <row r="80" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="44"/>
-      <c r="C80" s="45"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="46">
-        <f>SUM(E4:E79)</f>
-        <v>214781</v>
-      </c>
-      <c r="F80" s="47"/>
-      <c r="G80" s="47">
-        <f>SUM(G4:G79)</f>
-        <v>166872</v>
-      </c>
-      <c r="H80" s="48">
-        <f>SUM(H4:H79)</f>
-        <v>48265</v>
-      </c>
-      <c r="I80" s="3"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B81" s="44"/>
-      <c r="C81" s="45"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="49"/>
-      <c r="F81" s="50"/>
-      <c r="G81" s="64"/>
-      <c r="H81" s="51"/>
-      <c r="I81" s="3"/>
-    </row>
-    <row r="82" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B82" s="44"/>
-      <c r="C82" s="45"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="F82" s="50"/>
-      <c r="G82" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="H82" s="51"/>
-      <c r="I82" s="3"/>
-    </row>
-    <row r="83" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="44"/>
-      <c r="C83" s="45"/>
-      <c r="D83" s="3"/>
-      <c r="E83" s="52"/>
-      <c r="F83" s="50"/>
-      <c r="G83" s="53"/>
-      <c r="H83" s="51"/>
-      <c r="I83" s="3"/>
-    </row>
-    <row r="84" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B84" s="44"/>
-      <c r="C84" s="45"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="73">
-        <f>E80-G80</f>
-        <v>47909</v>
-      </c>
-      <c r="F84" s="74"/>
-      <c r="G84" s="75"/>
-      <c r="I84" s="3"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B85" s="44"/>
-      <c r="C85" s="45"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="49"/>
-      <c r="F85" s="50"/>
-      <c r="G85" s="64"/>
-      <c r="I85" s="3"/>
-    </row>
-    <row r="86" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B86" s="44"/>
-      <c r="C86" s="45"/>
-      <c r="D86" s="3"/>
-      <c r="E86" s="76" t="s">
-        <v>10</v>
-      </c>
-      <c r="F86" s="76"/>
-      <c r="G86" s="76"/>
-      <c r="I86" s="3"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B87" s="44"/>
-      <c r="C87" s="45"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="49"/>
-      <c r="F87" s="50"/>
-      <c r="G87" s="64"/>
-      <c r="I87" s="3"/>
-    </row>
-    <row r="88" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A88" s="24"/>
-      <c r="B88" s="15"/>
+    </row>
+    <row r="80" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="79">
+        <v>44982</v>
+      </c>
+      <c r="B80" s="15">
+        <f t="shared" si="2"/>
+        <v>1117</v>
+      </c>
+      <c r="C80" s="26"/>
+      <c r="D80" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E80" s="22">
+        <v>4889</v>
+      </c>
+      <c r="F80" s="23">
+        <v>44982</v>
+      </c>
+      <c r="G80" s="80">
+        <v>4889</v>
+      </c>
+      <c r="H80" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="79">
+        <v>44982</v>
+      </c>
+      <c r="B81" s="15">
+        <f t="shared" si="2"/>
+        <v>1118</v>
+      </c>
+      <c r="C81" s="26"/>
+      <c r="D81" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E81" s="22">
+        <v>3115</v>
+      </c>
+      <c r="F81" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G81" s="80">
+        <f>1000</f>
+        <v>1000</v>
+      </c>
+      <c r="H81" s="20">
+        <f t="shared" si="0"/>
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="79">
+        <v>44982</v>
+      </c>
+      <c r="B82" s="15">
+        <f t="shared" si="2"/>
+        <v>1119</v>
+      </c>
+      <c r="C82" s="26"/>
+      <c r="D82" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E82" s="22">
+        <v>4897</v>
+      </c>
+      <c r="F82" s="23">
+        <v>44985</v>
+      </c>
+      <c r="G82" s="80">
+        <v>4897</v>
+      </c>
+      <c r="H82" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="79">
+        <v>44982</v>
+      </c>
+      <c r="B83" s="15">
+        <f t="shared" si="2"/>
+        <v>1120</v>
+      </c>
+      <c r="C83" s="26"/>
+      <c r="D83" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E83" s="22">
+        <v>948</v>
+      </c>
+      <c r="F83" s="23">
+        <v>44982</v>
+      </c>
+      <c r="G83" s="80">
+        <v>948</v>
+      </c>
+      <c r="H83" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="79">
+        <v>44982</v>
+      </c>
+      <c r="B84" s="15">
+        <f t="shared" si="2"/>
+        <v>1121</v>
+      </c>
+      <c r="C84" s="26"/>
+      <c r="D84" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E84" s="22">
+        <v>3828</v>
+      </c>
+      <c r="F84" s="23"/>
+      <c r="G84" s="80"/>
+      <c r="H84" s="20">
+        <f t="shared" si="0"/>
+        <v>3828</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="79">
+        <v>44983</v>
+      </c>
+      <c r="B85" s="15">
+        <f t="shared" si="2"/>
+        <v>1122</v>
+      </c>
+      <c r="C85" s="26"/>
+      <c r="D85" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E85" s="22">
+        <v>1121</v>
+      </c>
+      <c r="F85" s="23">
+        <v>44985</v>
+      </c>
+      <c r="G85" s="80">
+        <v>1121</v>
+      </c>
+      <c r="H85" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="79">
+        <v>44983</v>
+      </c>
+      <c r="B86" s="15">
+        <f t="shared" si="2"/>
+        <v>1123</v>
+      </c>
+      <c r="C86" s="26"/>
+      <c r="D86" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E86" s="22">
+        <v>5494</v>
+      </c>
+      <c r="F86" s="23">
+        <v>44984</v>
+      </c>
+      <c r="G86" s="80">
+        <v>5494</v>
+      </c>
+      <c r="H86" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="79">
+        <v>44984</v>
+      </c>
+      <c r="B87" s="15">
+        <f t="shared" si="2"/>
+        <v>1124</v>
+      </c>
+      <c r="C87" s="26"/>
+      <c r="D87" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E87" s="22">
+        <v>1115</v>
+      </c>
+      <c r="F87" s="23">
+        <v>44985</v>
+      </c>
+      <c r="G87" s="80">
+        <v>1115</v>
+      </c>
+      <c r="H87" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="79">
+        <v>44984</v>
+      </c>
+      <c r="B88" s="15">
+        <f t="shared" si="2"/>
+        <v>1125</v>
+      </c>
       <c r="C88" s="26"/>
-      <c r="D88" s="54"/>
-      <c r="E88" s="55"/>
-      <c r="F88" s="56"/>
-      <c r="G88" s="65"/>
-      <c r="I88" s="3"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B89" s="44"/>
-      <c r="C89" s="45"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="49"/>
-      <c r="F89" s="50"/>
-      <c r="G89" s="64"/>
-      <c r="I89" s="3"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B90" s="44"/>
-      <c r="C90" s="45"/>
-      <c r="D90" s="3"/>
-      <c r="E90" s="49"/>
-      <c r="F90" s="50"/>
-      <c r="G90" s="64"/>
-      <c r="I90" s="3"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B91" s="44"/>
-      <c r="C91" s="45"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="49"/>
-      <c r="F91" s="50"/>
-      <c r="G91" s="64"/>
-      <c r="I91" s="3"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B92" s="44"/>
-      <c r="C92" s="45"/>
-      <c r="D92" s="3"/>
-      <c r="E92" s="49"/>
-      <c r="F92" s="50"/>
-      <c r="G92" s="64"/>
-      <c r="I92" s="3"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B93" s="44"/>
-      <c r="C93" s="45"/>
-      <c r="D93" s="3"/>
-      <c r="E93" s="49"/>
-      <c r="F93" s="50"/>
-      <c r="G93" s="64"/>
-      <c r="I93" s="3"/>
+      <c r="D88" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="E88" s="22">
+        <v>3175</v>
+      </c>
+      <c r="F88" s="23"/>
+      <c r="G88" s="80"/>
+      <c r="H88" s="20">
+        <f t="shared" si="0"/>
+        <v>3175</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="79">
+        <v>44985</v>
+      </c>
+      <c r="B89" s="15">
+        <f t="shared" si="2"/>
+        <v>1126</v>
+      </c>
+      <c r="C89" s="26"/>
+      <c r="D89" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E89" s="22">
+        <v>5163</v>
+      </c>
+      <c r="F89" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="G89" s="80">
+        <f>5000</f>
+        <v>5000</v>
+      </c>
+      <c r="H89" s="20">
+        <f t="shared" si="0"/>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="79">
+        <v>44985</v>
+      </c>
+      <c r="B90" s="15">
+        <f t="shared" si="2"/>
+        <v>1127</v>
+      </c>
+      <c r="C90" s="26"/>
+      <c r="D90" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E90" s="22">
+        <v>2404</v>
+      </c>
+      <c r="F90" s="23"/>
+      <c r="G90" s="80"/>
+      <c r="H90" s="20">
+        <f t="shared" si="0"/>
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="79">
+        <v>44985</v>
+      </c>
+      <c r="B91" s="15">
+        <f t="shared" si="2"/>
+        <v>1128</v>
+      </c>
+      <c r="C91" s="26"/>
+      <c r="D91" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E91" s="22">
+        <v>3240</v>
+      </c>
+      <c r="F91" s="23"/>
+      <c r="G91" s="80"/>
+      <c r="H91" s="20">
+        <f t="shared" si="0"/>
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="24"/>
+      <c r="B92" s="15"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="35"/>
+      <c r="E92" s="22"/>
+      <c r="F92" s="23"/>
+      <c r="G92" s="32"/>
+      <c r="H92" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="24"/>
+      <c r="B93" s="15"/>
+      <c r="C93" s="26"/>
+      <c r="D93" s="35"/>
+      <c r="E93" s="22"/>
+      <c r="F93" s="23"/>
+      <c r="G93" s="32"/>
+      <c r="H93" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B94" s="44"/>
       <c r="C94" s="45"/>
       <c r="D94" s="3"/>
-      <c r="E94" s="49"/>
-      <c r="F94" s="50"/>
-      <c r="G94" s="64"/>
+      <c r="E94" s="46">
+        <f>SUM(E4:E93)</f>
+        <v>411532</v>
+      </c>
+      <c r="F94" s="47"/>
+      <c r="G94" s="47">
+        <f>SUM(G4:G93)</f>
+        <v>382907</v>
+      </c>
+      <c r="H94" s="48">
+        <f>SUM(H4:H93)</f>
+        <v>28625</v>
+      </c>
       <c r="I94" s="3"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -5241,32 +5911,171 @@
       <c r="E95" s="49"/>
       <c r="F95" s="50"/>
       <c r="G95" s="64"/>
+      <c r="H95" s="51"/>
       <c r="I95" s="3"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B96" s="44"/>
       <c r="C96" s="45"/>
       <c r="D96" s="3"/>
-      <c r="E96" s="49"/>
+      <c r="E96" s="52" t="s">
+        <v>8</v>
+      </c>
       <c r="F96" s="50"/>
-      <c r="G96" s="64"/>
+      <c r="G96" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="H96" s="51"/>
       <c r="I96" s="3"/>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B97" s="44"/>
       <c r="C97" s="45"/>
       <c r="D97" s="3"/>
-      <c r="E97" s="49"/>
+      <c r="E97" s="52"/>
       <c r="F97" s="50"/>
-      <c r="G97" s="64"/>
+      <c r="G97" s="53"/>
+      <c r="H97" s="51"/>
       <c r="I97" s="3"/>
+    </row>
+    <row r="98" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B98" s="44"/>
+      <c r="C98" s="45"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="73">
+        <f>E94-G94</f>
+        <v>28625</v>
+      </c>
+      <c r="F98" s="74"/>
+      <c r="G98" s="75"/>
+      <c r="I98" s="3"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B99" s="44"/>
+      <c r="C99" s="45"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="49"/>
+      <c r="F99" s="50"/>
+      <c r="G99" s="64"/>
+      <c r="I99" s="3"/>
+    </row>
+    <row r="100" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B100" s="44"/>
+      <c r="C100" s="45"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="F100" s="76"/>
+      <c r="G100" s="76"/>
+      <c r="I100" s="3"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B101" s="44"/>
+      <c r="C101" s="45"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="49"/>
+      <c r="F101" s="50"/>
+      <c r="G101" s="64"/>
+      <c r="I101" s="3"/>
+    </row>
+    <row r="102" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A102" s="24"/>
+      <c r="B102" s="15"/>
+      <c r="C102" s="26"/>
+      <c r="D102" s="54"/>
+      <c r="E102" s="55"/>
+      <c r="F102" s="56"/>
+      <c r="G102" s="65"/>
+      <c r="I102" s="3"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B103" s="44"/>
+      <c r="C103" s="45"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="49"/>
+      <c r="F103" s="50"/>
+      <c r="G103" s="64"/>
+      <c r="I103" s="3"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B104" s="44"/>
+      <c r="C104" s="45"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="49"/>
+      <c r="F104" s="50"/>
+      <c r="G104" s="64"/>
+      <c r="I104" s="3"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B105" s="44"/>
+      <c r="C105" s="45"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="49"/>
+      <c r="F105" s="50"/>
+      <c r="G105" s="64"/>
+      <c r="I105" s="3"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B106" s="44"/>
+      <c r="C106" s="45"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="49"/>
+      <c r="F106" s="50"/>
+      <c r="G106" s="64"/>
+      <c r="I106" s="3"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B107" s="44"/>
+      <c r="C107" s="45"/>
+      <c r="D107" s="3"/>
+      <c r="E107" s="49"/>
+      <c r="F107" s="50"/>
+      <c r="G107" s="64"/>
+      <c r="I107" s="3"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B108" s="44"/>
+      <c r="C108" s="45"/>
+      <c r="D108" s="3"/>
+      <c r="E108" s="49"/>
+      <c r="F108" s="50"/>
+      <c r="G108" s="64"/>
+      <c r="I108" s="3"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B109" s="44"/>
+      <c r="C109" s="45"/>
+      <c r="D109" s="3"/>
+      <c r="E109" s="49"/>
+      <c r="F109" s="50"/>
+      <c r="G109" s="64"/>
+      <c r="I109" s="3"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B110" s="44"/>
+      <c r="C110" s="45"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="49"/>
+      <c r="F110" s="50"/>
+      <c r="G110" s="64"/>
+      <c r="I110" s="3"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B111" s="44"/>
+      <c r="C111" s="45"/>
+      <c r="D111" s="3"/>
+      <c r="E111" s="49"/>
+      <c r="F111" s="50"/>
+      <c r="G111" s="64"/>
+      <c r="I111" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="E84:G84"/>
-    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="E98:G98"/>
+    <mergeCell ref="E100:G100"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #02  FEBRERO 2023/CREDITOS  HERRADURA   FEBRERO     2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #02  FEBRERO 2023/CREDITOS  HERRADURA   FEBRERO     2023.xlsx
@@ -572,7 +572,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -742,30 +742,6 @@
     <xf numFmtId="44" fontId="8" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -781,6 +757,33 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="6" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1318,25 +1321,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="71"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="77"/>
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
-      <c r="B2" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
+      <c r="B2" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="61"/>
       <c r="H2" s="5"/>
       <c r="I2" s="3"/>
@@ -3359,12 +3362,12 @@
       <c r="B84" s="44"/>
       <c r="C84" s="45"/>
       <c r="D84" s="3"/>
-      <c r="E84" s="73">
+      <c r="E84" s="79">
         <f>E80-G80</f>
         <v>0</v>
       </c>
-      <c r="F84" s="74"/>
-      <c r="G84" s="75"/>
+      <c r="F84" s="80"/>
+      <c r="G84" s="81"/>
       <c r="I84" s="3"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -3380,11 +3383,11 @@
       <c r="B86" s="44"/>
       <c r="C86" s="45"/>
       <c r="D86" s="3"/>
-      <c r="E86" s="76" t="s">
+      <c r="E86" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="F86" s="76"/>
-      <c r="G86" s="76"/>
+      <c r="F86" s="82"/>
+      <c r="G86" s="82"/>
       <c r="I86" s="3"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -3507,8 +3510,8 @@
   </sheetPr>
   <dimension ref="A1:I111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3527,25 +3530,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="71"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="77"/>
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
-      <c r="B2" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
+      <c r="B2" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="61"/>
       <c r="H2" s="5"/>
       <c r="I2" s="3"/>
@@ -4063,10 +4066,10 @@
       <c r="E22" s="22">
         <v>55696</v>
       </c>
-      <c r="F22" s="82" t="s">
+      <c r="F22" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="G22" s="80">
+      <c r="G22" s="72">
         <f>55000+696</f>
         <v>55696</v>
       </c>
@@ -4273,10 +4276,10 @@
       <c r="E30" s="22">
         <v>341</v>
       </c>
-      <c r="F30" s="82">
+      <c r="F30" s="74">
         <v>44971</v>
       </c>
-      <c r="G30" s="80">
+      <c r="G30" s="72">
         <v>341</v>
       </c>
       <c r="H30" s="20">
@@ -4325,10 +4328,10 @@
       <c r="E32" s="22">
         <v>2913</v>
       </c>
-      <c r="F32" s="82" t="s">
+      <c r="F32" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="G32" s="80">
+      <c r="G32" s="72">
         <f>1200+1713</f>
         <v>2913</v>
       </c>
@@ -4405,10 +4408,10 @@
       <c r="E35" s="22">
         <v>17130</v>
       </c>
-      <c r="F35" s="23">
+      <c r="F35" s="74">
         <v>44976</v>
       </c>
-      <c r="G35" s="32">
+      <c r="G35" s="72">
         <v>17130</v>
       </c>
       <c r="H35" s="20">
@@ -4431,10 +4434,10 @@
       <c r="E36" s="22">
         <v>2533</v>
       </c>
-      <c r="F36" s="23">
+      <c r="F36" s="74">
         <v>44974</v>
       </c>
-      <c r="G36" s="32">
+      <c r="G36" s="72">
         <v>2533</v>
       </c>
       <c r="H36" s="20">
@@ -4483,10 +4486,10 @@
       <c r="E38" s="22">
         <v>11200</v>
       </c>
-      <c r="F38" s="82">
+      <c r="F38" s="74">
         <v>44970</v>
       </c>
-      <c r="G38" s="32">
+      <c r="G38" s="72">
         <v>11200</v>
       </c>
       <c r="H38" s="20">
@@ -4509,10 +4512,10 @@
       <c r="E39" s="22">
         <v>8000</v>
       </c>
-      <c r="F39" s="82">
+      <c r="F39" s="74">
         <v>44970</v>
       </c>
-      <c r="G39" s="32">
+      <c r="G39" s="72">
         <v>8000</v>
       </c>
       <c r="H39" s="20">
@@ -4535,10 +4538,10 @@
       <c r="E40" s="22">
         <v>5096</v>
       </c>
-      <c r="F40" s="82">
+      <c r="F40" s="74">
         <v>44970</v>
       </c>
-      <c r="G40" s="32">
+      <c r="G40" s="72">
         <v>5096</v>
       </c>
       <c r="H40" s="20">
@@ -4547,7 +4550,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="77">
+      <c r="A41" s="69">
         <v>44970</v>
       </c>
       <c r="B41" s="15">
@@ -4555,16 +4558,16 @@
         <v>1078</v>
       </c>
       <c r="C41" s="26"/>
-      <c r="D41" s="81" t="s">
+      <c r="D41" s="73" t="s">
         <v>12</v>
       </c>
       <c r="E41" s="22">
         <v>357</v>
       </c>
-      <c r="F41" s="82">
+      <c r="F41" s="74">
         <v>44971</v>
       </c>
-      <c r="G41" s="80">
+      <c r="G41" s="72">
         <v>357</v>
       </c>
       <c r="H41" s="20">
@@ -4573,7 +4576,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="77">
+      <c r="A42" s="69">
         <v>44970</v>
       </c>
       <c r="B42" s="15">
@@ -4581,16 +4584,16 @@
         <v>1079</v>
       </c>
       <c r="C42" s="26"/>
-      <c r="D42" s="81" t="s">
+      <c r="D42" s="73" t="s">
         <v>15</v>
       </c>
       <c r="E42" s="22">
         <v>1947</v>
       </c>
-      <c r="F42" s="23" t="s">
+      <c r="F42" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="G42" s="80">
+      <c r="G42" s="72">
         <f>600+1347</f>
         <v>1947</v>
       </c>
@@ -4600,7 +4603,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="77">
+      <c r="A43" s="69">
         <v>44970</v>
       </c>
       <c r="B43" s="15">
@@ -4608,16 +4611,16 @@
         <v>1080</v>
       </c>
       <c r="C43" s="26"/>
-      <c r="D43" s="81" t="s">
+      <c r="D43" s="73" t="s">
         <v>19</v>
       </c>
       <c r="E43" s="22">
         <v>5832</v>
       </c>
-      <c r="F43" s="82">
+      <c r="F43" s="74">
         <v>44971</v>
       </c>
-      <c r="G43" s="80">
+      <c r="G43" s="72">
         <v>5832</v>
       </c>
       <c r="H43" s="20">
@@ -4626,7 +4629,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="77">
+      <c r="A44" s="69">
         <v>44970</v>
       </c>
       <c r="B44" s="15">
@@ -4634,16 +4637,16 @@
         <v>1081</v>
       </c>
       <c r="C44" s="26"/>
-      <c r="D44" s="81" t="s">
+      <c r="D44" s="73" t="s">
         <v>13</v>
       </c>
       <c r="E44" s="22">
         <v>4280</v>
       </c>
-      <c r="F44" s="82">
+      <c r="F44" s="74">
         <v>44971</v>
       </c>
-      <c r="G44" s="80">
+      <c r="G44" s="72">
         <v>4280</v>
       </c>
       <c r="H44" s="20">
@@ -4652,7 +4655,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="77">
+      <c r="A45" s="69">
         <v>44970</v>
       </c>
       <c r="B45" s="15">
@@ -4660,16 +4663,16 @@
         <v>1082</v>
       </c>
       <c r="C45" s="26"/>
-      <c r="D45" s="81" t="s">
+      <c r="D45" s="73" t="s">
         <v>16</v>
       </c>
       <c r="E45" s="22">
         <v>4072</v>
       </c>
-      <c r="F45" s="82">
+      <c r="F45" s="74">
         <v>44973</v>
       </c>
-      <c r="G45" s="80">
+      <c r="G45" s="72">
         <v>4072</v>
       </c>
       <c r="H45" s="20">
@@ -4678,7 +4681,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="77">
+      <c r="A46" s="69">
         <v>44971</v>
       </c>
       <c r="B46" s="15">
@@ -4686,16 +4689,16 @@
         <v>1083</v>
       </c>
       <c r="C46" s="26"/>
-      <c r="D46" s="81" t="s">
+      <c r="D46" s="73" t="s">
         <v>14</v>
       </c>
       <c r="E46" s="22">
         <v>2100</v>
       </c>
-      <c r="F46" s="82" t="s">
+      <c r="F46" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="G46" s="80">
+      <c r="G46" s="72">
         <f>1559+541</f>
         <v>2100</v>
       </c>
@@ -4705,7 +4708,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="77">
+      <c r="A47" s="69">
         <v>44971</v>
       </c>
       <c r="B47" s="15">
@@ -4713,7 +4716,7 @@
         <v>1084</v>
       </c>
       <c r="C47" s="28"/>
-      <c r="D47" s="81" t="s">
+      <c r="D47" s="73" t="s">
         <v>15</v>
       </c>
       <c r="E47" s="22">
@@ -4722,7 +4725,7 @@
       <c r="F47" s="23">
         <v>44975</v>
       </c>
-      <c r="G47" s="80">
+      <c r="G47" s="72">
         <v>1866</v>
       </c>
       <c r="H47" s="20">
@@ -4731,7 +4734,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="77">
+      <c r="A48" s="69">
         <v>44971</v>
       </c>
       <c r="B48" s="15">
@@ -4739,16 +4742,16 @@
         <v>1085</v>
       </c>
       <c r="C48" s="29"/>
-      <c r="D48" s="81" t="s">
+      <c r="D48" s="73" t="s">
         <v>13</v>
       </c>
       <c r="E48" s="22">
         <v>4328</v>
       </c>
-      <c r="F48" s="82">
+      <c r="F48" s="74">
         <v>44973</v>
       </c>
-      <c r="G48" s="80">
+      <c r="G48" s="72">
         <v>4328</v>
       </c>
       <c r="H48" s="20">
@@ -4757,7 +4760,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="77">
+      <c r="A49" s="69">
         <v>44940</v>
       </c>
       <c r="B49" s="15">
@@ -4765,16 +4768,16 @@
         <v>1086</v>
       </c>
       <c r="C49" s="26"/>
-      <c r="D49" s="81" t="s">
+      <c r="D49" s="73" t="s">
         <v>24</v>
       </c>
       <c r="E49" s="22">
         <v>219</v>
       </c>
-      <c r="F49" s="23">
+      <c r="F49" s="74">
         <v>44976</v>
       </c>
-      <c r="G49" s="80">
+      <c r="G49" s="72">
         <v>219</v>
       </c>
       <c r="H49" s="20">
@@ -4783,7 +4786,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="77">
+      <c r="A50" s="69">
         <v>44973</v>
       </c>
       <c r="B50" s="15">
@@ -4791,16 +4794,16 @@
         <v>1087</v>
       </c>
       <c r="C50" s="26"/>
-      <c r="D50" s="81" t="s">
+      <c r="D50" s="73" t="s">
         <v>14</v>
       </c>
       <c r="E50" s="22">
         <v>3685</v>
       </c>
-      <c r="F50" s="82" t="s">
+      <c r="F50" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="G50" s="80">
+      <c r="G50" s="72">
         <f>3485+200</f>
         <v>3685</v>
       </c>
@@ -4810,7 +4813,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="77">
+      <c r="A51" s="69">
         <v>44973</v>
       </c>
       <c r="B51" s="15">
@@ -4818,16 +4821,16 @@
         <v>1088</v>
       </c>
       <c r="C51" s="26"/>
-      <c r="D51" s="81" t="s">
+      <c r="D51" s="73" t="s">
         <v>15</v>
       </c>
       <c r="E51" s="22">
         <v>2394</v>
       </c>
-      <c r="F51" s="23" t="s">
+      <c r="F51" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="G51" s="80">
+      <c r="G51" s="72">
         <f>1300+1094</f>
         <v>2394</v>
       </c>
@@ -4837,7 +4840,7 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="77">
+      <c r="A52" s="69">
         <v>44973</v>
       </c>
       <c r="B52" s="15">
@@ -4845,16 +4848,16 @@
         <v>1089</v>
       </c>
       <c r="C52" s="26"/>
-      <c r="D52" s="81" t="s">
+      <c r="D52" s="73" t="s">
         <v>13</v>
       </c>
       <c r="E52" s="22">
         <v>3224</v>
       </c>
-      <c r="F52" s="23">
+      <c r="F52" s="74">
         <v>44974</v>
       </c>
-      <c r="G52" s="80">
+      <c r="G52" s="72">
         <v>3224</v>
       </c>
       <c r="H52" s="20">
@@ -4863,7 +4866,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="77">
+      <c r="A53" s="69">
         <v>44974</v>
       </c>
       <c r="B53" s="15">
@@ -4871,16 +4874,16 @@
         <v>1090</v>
       </c>
       <c r="C53" s="26"/>
-      <c r="D53" s="21" t="s">
+      <c r="D53" s="73" t="s">
         <v>13</v>
       </c>
       <c r="E53" s="22">
         <v>3096</v>
       </c>
-      <c r="F53" s="23">
+      <c r="F53" s="74">
         <v>44975</v>
       </c>
-      <c r="G53" s="80">
+      <c r="G53" s="72">
         <v>3096</v>
       </c>
       <c r="H53" s="20">
@@ -4889,7 +4892,7 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="77">
+      <c r="A54" s="69">
         <v>44974</v>
       </c>
       <c r="B54" s="15">
@@ -4897,16 +4900,16 @@
         <v>1091</v>
       </c>
       <c r="C54" s="26"/>
-      <c r="D54" s="21" t="s">
+      <c r="D54" s="73" t="s">
         <v>15</v>
       </c>
       <c r="E54" s="22">
         <v>1749</v>
       </c>
-      <c r="F54" s="23">
+      <c r="F54" s="74">
         <v>44976</v>
       </c>
-      <c r="G54" s="80">
+      <c r="G54" s="72">
         <v>1749</v>
       </c>
       <c r="H54" s="20">
@@ -4915,7 +4918,7 @@
       </c>
     </row>
     <row r="55" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="78">
+      <c r="A55" s="70">
         <v>44974</v>
       </c>
       <c r="B55" s="15">
@@ -4923,7 +4926,7 @@
         <v>1092</v>
       </c>
       <c r="C55" s="26"/>
-      <c r="D55" s="25" t="s">
+      <c r="D55" s="83" t="s">
         <v>24</v>
       </c>
       <c r="E55" s="31">
@@ -4932,7 +4935,7 @@
       <c r="F55" s="23">
         <v>44983</v>
       </c>
-      <c r="G55" s="80">
+      <c r="G55" s="72">
         <v>15310</v>
       </c>
       <c r="H55" s="33">
@@ -4941,7 +4944,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="77">
+      <c r="A56" s="69">
         <v>44975</v>
       </c>
       <c r="B56" s="15">
@@ -4949,7 +4952,7 @@
         <v>1093</v>
       </c>
       <c r="C56" s="26"/>
-      <c r="D56" s="21" t="s">
+      <c r="D56" s="73" t="s">
         <v>12</v>
       </c>
       <c r="E56" s="22">
@@ -4958,7 +4961,7 @@
       <c r="F56" s="23">
         <v>44982</v>
       </c>
-      <c r="G56" s="80">
+      <c r="G56" s="72">
         <v>271</v>
       </c>
       <c r="H56" s="20">
@@ -4967,7 +4970,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="77">
+      <c r="A57" s="69">
         <v>44975</v>
       </c>
       <c r="B57" s="15">
@@ -4975,7 +4978,7 @@
         <v>1094</v>
       </c>
       <c r="C57" s="26"/>
-      <c r="D57" s="21" t="s">
+      <c r="D57" s="73" t="s">
         <v>15</v>
       </c>
       <c r="E57" s="22">
@@ -4984,7 +4987,7 @@
       <c r="F57" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="G57" s="80">
+      <c r="G57" s="72">
         <f>900+2097</f>
         <v>2997</v>
       </c>
@@ -4994,7 +4997,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="77">
+      <c r="A58" s="69">
         <v>44975</v>
       </c>
       <c r="B58" s="15">
@@ -5002,16 +5005,16 @@
         <v>1095</v>
       </c>
       <c r="C58" s="26"/>
-      <c r="D58" s="21" t="s">
+      <c r="D58" s="73" t="s">
         <v>17</v>
       </c>
       <c r="E58" s="22">
         <v>1620</v>
       </c>
-      <c r="F58" s="23">
+      <c r="F58" s="74">
         <v>44976</v>
       </c>
-      <c r="G58" s="80">
+      <c r="G58" s="72">
         <v>1620</v>
       </c>
       <c r="H58" s="20">
@@ -5020,7 +5023,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="77">
+      <c r="A59" s="69">
         <v>44975</v>
       </c>
       <c r="B59" s="15">
@@ -5028,16 +5031,16 @@
         <v>1096</v>
       </c>
       <c r="C59" s="26"/>
-      <c r="D59" s="21" t="s">
+      <c r="D59" s="73" t="s">
         <v>13</v>
       </c>
       <c r="E59" s="22">
         <v>5024</v>
       </c>
-      <c r="F59" s="23">
+      <c r="F59" s="74">
         <v>44976</v>
       </c>
-      <c r="G59" s="80">
+      <c r="G59" s="72">
         <v>5024</v>
       </c>
       <c r="H59" s="20">
@@ -5046,7 +5049,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="77">
+      <c r="A60" s="69">
         <v>44975</v>
       </c>
       <c r="B60" s="15">
@@ -5054,7 +5057,7 @@
         <v>1097</v>
       </c>
       <c r="C60" s="26"/>
-      <c r="D60" s="21" t="s">
+      <c r="D60" s="73" t="s">
         <v>25</v>
       </c>
       <c r="E60" s="22">
@@ -5063,7 +5066,7 @@
       <c r="F60" s="23">
         <v>44977</v>
       </c>
-      <c r="G60" s="80">
+      <c r="G60" s="72">
         <v>11200</v>
       </c>
       <c r="H60" s="20">
@@ -5072,7 +5075,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="77">
+      <c r="A61" s="69">
         <v>44976</v>
       </c>
       <c r="B61" s="15">
@@ -5080,7 +5083,7 @@
         <v>1098</v>
       </c>
       <c r="C61" s="26"/>
-      <c r="D61" s="21" t="s">
+      <c r="D61" s="73" t="s">
         <v>15</v>
       </c>
       <c r="E61" s="22">
@@ -5089,7 +5092,7 @@
       <c r="F61" s="23">
         <v>44981</v>
       </c>
-      <c r="G61" s="80">
+      <c r="G61" s="72">
         <v>1450</v>
       </c>
       <c r="H61" s="20">
@@ -5098,7 +5101,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="77">
+      <c r="A62" s="69">
         <v>44976</v>
       </c>
       <c r="B62" s="15">
@@ -5106,7 +5109,7 @@
         <v>1099</v>
       </c>
       <c r="C62" s="26"/>
-      <c r="D62" s="21" t="s">
+      <c r="D62" s="73" t="s">
         <v>13</v>
       </c>
       <c r="E62" s="22">
@@ -5115,7 +5118,7 @@
       <c r="F62" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="G62" s="80">
+      <c r="G62" s="72">
         <f>4670</f>
         <v>4670</v>
       </c>
@@ -5125,7 +5128,7 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="77">
+      <c r="A63" s="69">
         <v>44977</v>
       </c>
       <c r="B63" s="15">
@@ -5142,7 +5145,7 @@
       <c r="F63" s="23">
         <v>44978</v>
       </c>
-      <c r="G63" s="80">
+      <c r="G63" s="72">
         <v>5080</v>
       </c>
       <c r="H63" s="20">
@@ -5151,7 +5154,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="77">
+      <c r="A64" s="69">
         <v>44977</v>
       </c>
       <c r="B64" s="15">
@@ -5168,7 +5171,7 @@
       <c r="F64" s="23">
         <v>44978</v>
       </c>
-      <c r="G64" s="80">
+      <c r="G64" s="72">
         <v>1000</v>
       </c>
       <c r="H64" s="20">
@@ -5177,7 +5180,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="79">
+      <c r="A65" s="71">
         <v>44977</v>
       </c>
       <c r="B65" s="15">
@@ -5194,7 +5197,7 @@
       <c r="F65" s="23">
         <v>44978</v>
       </c>
-      <c r="G65" s="80">
+      <c r="G65" s="72">
         <v>3620</v>
       </c>
       <c r="H65" s="20">
@@ -5203,7 +5206,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="79">
+      <c r="A66" s="71">
         <v>44978</v>
       </c>
       <c r="B66" s="15">
@@ -5220,7 +5223,7 @@
       <c r="F66" s="23">
         <v>44980</v>
       </c>
-      <c r="G66" s="80">
+      <c r="G66" s="72">
         <v>9657</v>
       </c>
       <c r="H66" s="20">
@@ -5229,7 +5232,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="79">
+      <c r="A67" s="71">
         <v>44978</v>
       </c>
       <c r="B67" s="15">
@@ -5246,7 +5249,7 @@
       <c r="F67" s="23">
         <v>44979</v>
       </c>
-      <c r="G67" s="80">
+      <c r="G67" s="72">
         <v>3318</v>
       </c>
       <c r="H67" s="20">
@@ -5255,7 +5258,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="79">
+      <c r="A68" s="71">
         <v>44978</v>
       </c>
       <c r="B68" s="15">
@@ -5270,14 +5273,14 @@
         <v>5400</v>
       </c>
       <c r="F68" s="23"/>
-      <c r="G68" s="80"/>
+      <c r="G68" s="72"/>
       <c r="H68" s="20">
         <f t="shared" si="0"/>
         <v>5400</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="79">
+      <c r="A69" s="71">
         <v>44979</v>
       </c>
       <c r="B69" s="15">
@@ -5294,7 +5297,7 @@
       <c r="F69" s="23">
         <v>44980</v>
       </c>
-      <c r="G69" s="80">
+      <c r="G69" s="72">
         <v>2999</v>
       </c>
       <c r="H69" s="20">
@@ -5303,7 +5306,7 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="79">
+      <c r="A70" s="71">
         <v>44979</v>
       </c>
       <c r="B70" s="15">
@@ -5320,7 +5323,7 @@
       <c r="F70" s="23">
         <v>44981</v>
       </c>
-      <c r="G70" s="80">
+      <c r="G70" s="72">
         <v>728</v>
       </c>
       <c r="H70" s="20">
@@ -5329,7 +5332,7 @@
       </c>
     </row>
     <row r="71" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="79">
+      <c r="A71" s="71">
         <v>44980</v>
       </c>
       <c r="B71" s="15">
@@ -5346,7 +5349,7 @@
       <c r="F71" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="G71" s="80">
+      <c r="G71" s="72">
         <f>225+341</f>
         <v>566</v>
       </c>
@@ -5356,7 +5359,7 @@
       </c>
     </row>
     <row r="72" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="79">
+      <c r="A72" s="71">
         <v>44980</v>
       </c>
       <c r="B72" s="15">
@@ -5373,7 +5376,7 @@
       <c r="F72" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="G72" s="80">
+      <c r="G72" s="72">
         <f>800+1532</f>
         <v>2332</v>
       </c>
@@ -5383,7 +5386,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="79">
+      <c r="A73" s="71">
         <v>44980</v>
       </c>
       <c r="B73" s="15">
@@ -5400,7 +5403,7 @@
       <c r="F73" s="23">
         <v>44981</v>
       </c>
-      <c r="G73" s="80">
+      <c r="G73" s="72">
         <v>9086</v>
       </c>
       <c r="H73" s="20">
@@ -5409,7 +5412,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="79">
+      <c r="A74" s="71">
         <v>44980</v>
       </c>
       <c r="B74" s="15">
@@ -5426,7 +5429,7 @@
       <c r="F74" s="23">
         <v>44981</v>
       </c>
-      <c r="G74" s="80">
+      <c r="G74" s="72">
         <v>2419</v>
       </c>
       <c r="H74" s="20">
@@ -5435,7 +5438,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="79">
+      <c r="A75" s="71">
         <v>44981</v>
       </c>
       <c r="B75" s="15">
@@ -5452,7 +5455,7 @@
       <c r="F75" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="G75" s="80">
+      <c r="G75" s="72">
         <f>1000+750</f>
         <v>1750</v>
       </c>
@@ -5462,7 +5465,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="79">
+      <c r="A76" s="71">
         <v>44981</v>
       </c>
       <c r="B76" s="15">
@@ -5479,7 +5482,7 @@
       <c r="F76" s="23">
         <v>44982</v>
       </c>
-      <c r="G76" s="80">
+      <c r="G76" s="72">
         <v>3091</v>
       </c>
       <c r="H76" s="20">
@@ -5488,7 +5491,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="79">
+      <c r="A77" s="71">
         <v>44981</v>
       </c>
       <c r="B77" s="15">
@@ -5503,14 +5506,14 @@
         <v>8100</v>
       </c>
       <c r="F77" s="23"/>
-      <c r="G77" s="80"/>
+      <c r="G77" s="72"/>
       <c r="H77" s="20">
         <f t="shared" si="0"/>
         <v>8100</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="79">
+      <c r="A78" s="71">
         <v>44981</v>
       </c>
       <c r="B78" s="15">
@@ -5527,7 +5530,7 @@
       <c r="F78" s="23">
         <v>44982</v>
       </c>
-      <c r="G78" s="80">
+      <c r="G78" s="72">
         <v>5125</v>
       </c>
       <c r="H78" s="20">
@@ -5536,7 +5539,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="79">
+      <c r="A79" s="71">
         <v>44981</v>
       </c>
       <c r="B79" s="15">
@@ -5553,7 +5556,7 @@
       <c r="F79" s="23">
         <v>44984</v>
       </c>
-      <c r="G79" s="80">
+      <c r="G79" s="72">
         <v>11200</v>
       </c>
       <c r="H79" s="20">
@@ -5562,7 +5565,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="79">
+      <c r="A80" s="71">
         <v>44982</v>
       </c>
       <c r="B80" s="15">
@@ -5579,7 +5582,7 @@
       <c r="F80" s="23">
         <v>44982</v>
       </c>
-      <c r="G80" s="80">
+      <c r="G80" s="72">
         <v>4889</v>
       </c>
       <c r="H80" s="20">
@@ -5588,7 +5591,7 @@
       </c>
     </row>
     <row r="81" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="79">
+      <c r="A81" s="71">
         <v>44982</v>
       </c>
       <c r="B81" s="15">
@@ -5605,7 +5608,7 @@
       <c r="F81" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="G81" s="80">
+      <c r="G81" s="72">
         <f>1000</f>
         <v>1000</v>
       </c>
@@ -5615,7 +5618,7 @@
       </c>
     </row>
     <row r="82" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="79">
+      <c r="A82" s="71">
         <v>44982</v>
       </c>
       <c r="B82" s="15">
@@ -5632,7 +5635,7 @@
       <c r="F82" s="23">
         <v>44985</v>
       </c>
-      <c r="G82" s="80">
+      <c r="G82" s="72">
         <v>4897</v>
       </c>
       <c r="H82" s="20">
@@ -5641,7 +5644,7 @@
       </c>
     </row>
     <row r="83" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="79">
+      <c r="A83" s="71">
         <v>44982</v>
       </c>
       <c r="B83" s="15">
@@ -5658,7 +5661,7 @@
       <c r="F83" s="23">
         <v>44982</v>
       </c>
-      <c r="G83" s="80">
+      <c r="G83" s="72">
         <v>948</v>
       </c>
       <c r="H83" s="20">
@@ -5667,7 +5670,7 @@
       </c>
     </row>
     <row r="84" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="79">
+      <c r="A84" s="71">
         <v>44982</v>
       </c>
       <c r="B84" s="15">
@@ -5682,14 +5685,14 @@
         <v>3828</v>
       </c>
       <c r="F84" s="23"/>
-      <c r="G84" s="80"/>
+      <c r="G84" s="72"/>
       <c r="H84" s="20">
         <f t="shared" si="0"/>
         <v>3828</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="79">
+      <c r="A85" s="71">
         <v>44983</v>
       </c>
       <c r="B85" s="15">
@@ -5706,7 +5709,7 @@
       <c r="F85" s="23">
         <v>44985</v>
       </c>
-      <c r="G85" s="80">
+      <c r="G85" s="72">
         <v>1121</v>
       </c>
       <c r="H85" s="20">
@@ -5715,7 +5718,7 @@
       </c>
     </row>
     <row r="86" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="79">
+      <c r="A86" s="71">
         <v>44983</v>
       </c>
       <c r="B86" s="15">
@@ -5732,7 +5735,7 @@
       <c r="F86" s="23">
         <v>44984</v>
       </c>
-      <c r="G86" s="80">
+      <c r="G86" s="72">
         <v>5494</v>
       </c>
       <c r="H86" s="20">
@@ -5741,7 +5744,7 @@
       </c>
     </row>
     <row r="87" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="79">
+      <c r="A87" s="71">
         <v>44984</v>
       </c>
       <c r="B87" s="15">
@@ -5758,7 +5761,7 @@
       <c r="F87" s="23">
         <v>44985</v>
       </c>
-      <c r="G87" s="80">
+      <c r="G87" s="72">
         <v>1115</v>
       </c>
       <c r="H87" s="20">
@@ -5767,7 +5770,7 @@
       </c>
     </row>
     <row r="88" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="79">
+      <c r="A88" s="71">
         <v>44984</v>
       </c>
       <c r="B88" s="15">
@@ -5782,14 +5785,14 @@
         <v>3175</v>
       </c>
       <c r="F88" s="23"/>
-      <c r="G88" s="80"/>
+      <c r="G88" s="72"/>
       <c r="H88" s="20">
         <f t="shared" si="0"/>
         <v>3175</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="79">
+      <c r="A89" s="71">
         <v>44985</v>
       </c>
       <c r="B89" s="15">
@@ -5806,7 +5809,7 @@
       <c r="F89" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="G89" s="80">
+      <c r="G89" s="72">
         <f>5000</f>
         <v>5000</v>
       </c>
@@ -5816,7 +5819,7 @@
       </c>
     </row>
     <row r="90" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="79">
+      <c r="A90" s="71">
         <v>44985</v>
       </c>
       <c r="B90" s="15">
@@ -5831,14 +5834,14 @@
         <v>2404</v>
       </c>
       <c r="F90" s="23"/>
-      <c r="G90" s="80"/>
+      <c r="G90" s="72"/>
       <c r="H90" s="20">
         <f t="shared" si="0"/>
         <v>2404</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="79">
+      <c r="A91" s="71">
         <v>44985</v>
       </c>
       <c r="B91" s="15">
@@ -5853,7 +5856,7 @@
         <v>3240</v>
       </c>
       <c r="F91" s="23"/>
-      <c r="G91" s="80"/>
+      <c r="G91" s="72"/>
       <c r="H91" s="20">
         <f t="shared" si="0"/>
         <v>3240</v>
@@ -5942,12 +5945,12 @@
       <c r="B98" s="44"/>
       <c r="C98" s="45"/>
       <c r="D98" s="3"/>
-      <c r="E98" s="73">
+      <c r="E98" s="79">
         <f>E94-G94</f>
         <v>28625</v>
       </c>
-      <c r="F98" s="74"/>
-      <c r="G98" s="75"/>
+      <c r="F98" s="80"/>
+      <c r="G98" s="81"/>
       <c r="I98" s="3"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -5963,11 +5966,11 @@
       <c r="B100" s="44"/>
       <c r="C100" s="45"/>
       <c r="D100" s="3"/>
-      <c r="E100" s="76" t="s">
+      <c r="E100" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="F100" s="76"/>
-      <c r="G100" s="76"/>
+      <c r="F100" s="82"/>
+      <c r="G100" s="82"/>
       <c r="I100" s="3"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #02  FEBRERO 2023/CREDITOS  HERRADURA   FEBRERO     2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #02  FEBRERO 2023/CREDITOS  HERRADURA   FEBRERO     2023.xlsx
@@ -572,7 +572,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -758,6 +758,9 @@
     <xf numFmtId="165" fontId="6" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -782,9 +785,7 @@
     <xf numFmtId="166" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1321,25 +1322,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="78"/>
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
-      <c r="B2" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
+      <c r="B2" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="61"/>
       <c r="H2" s="5"/>
       <c r="I2" s="3"/>
@@ -3362,12 +3363,12 @@
       <c r="B84" s="44"/>
       <c r="C84" s="45"/>
       <c r="D84" s="3"/>
-      <c r="E84" s="79">
+      <c r="E84" s="80">
         <f>E80-G80</f>
         <v>0</v>
       </c>
-      <c r="F84" s="80"/>
-      <c r="G84" s="81"/>
+      <c r="F84" s="81"/>
+      <c r="G84" s="82"/>
       <c r="I84" s="3"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -3383,11 +3384,11 @@
       <c r="B86" s="44"/>
       <c r="C86" s="45"/>
       <c r="D86" s="3"/>
-      <c r="E86" s="82" t="s">
+      <c r="E86" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="F86" s="82"/>
-      <c r="G86" s="82"/>
+      <c r="F86" s="83"/>
+      <c r="G86" s="83"/>
       <c r="I86" s="3"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -3510,8 +3511,8 @@
   </sheetPr>
   <dimension ref="A1:I111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3530,25 +3531,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="78"/>
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
-      <c r="B2" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
+      <c r="B2" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="61"/>
       <c r="H2" s="5"/>
       <c r="I2" s="3"/>
@@ -4926,7 +4927,7 @@
         <v>1092</v>
       </c>
       <c r="C55" s="26"/>
-      <c r="D55" s="83" t="s">
+      <c r="D55" s="75" t="s">
         <v>24</v>
       </c>
       <c r="E55" s="31">
@@ -4984,7 +4985,7 @@
       <c r="E57" s="22">
         <v>2997</v>
       </c>
-      <c r="F57" s="23" t="s">
+      <c r="F57" s="74" t="s">
         <v>54</v>
       </c>
       <c r="G57" s="72">
@@ -5063,7 +5064,7 @@
       <c r="E60" s="22">
         <v>11200</v>
       </c>
-      <c r="F60" s="23">
+      <c r="F60" s="74">
         <v>44977</v>
       </c>
       <c r="G60" s="72">
@@ -5115,7 +5116,7 @@
       <c r="E62" s="22">
         <v>4670</v>
       </c>
-      <c r="F62" s="23" t="s">
+      <c r="F62" s="74" t="s">
         <v>53</v>
       </c>
       <c r="G62" s="72">
@@ -5136,13 +5137,13 @@
         <v>1100</v>
       </c>
       <c r="C63" s="26"/>
-      <c r="D63" s="21" t="s">
+      <c r="D63" s="73" t="s">
         <v>19</v>
       </c>
       <c r="E63" s="22">
         <v>5080</v>
       </c>
-      <c r="F63" s="23">
+      <c r="F63" s="74">
         <v>44978</v>
       </c>
       <c r="G63" s="72">
@@ -5162,13 +5163,13 @@
         <v>1101</v>
       </c>
       <c r="C64" s="26"/>
-      <c r="D64" s="21" t="s">
+      <c r="D64" s="73" t="s">
         <v>15</v>
       </c>
       <c r="E64" s="22">
         <v>1000</v>
       </c>
-      <c r="F64" s="23">
+      <c r="F64" s="74">
         <v>44978</v>
       </c>
       <c r="G64" s="72">
@@ -5188,13 +5189,13 @@
         <v>1102</v>
       </c>
       <c r="C65" s="26"/>
-      <c r="D65" s="35" t="s">
+      <c r="D65" s="84" t="s">
         <v>13</v>
       </c>
       <c r="E65" s="22">
         <v>3620</v>
       </c>
-      <c r="F65" s="23">
+      <c r="F65" s="74">
         <v>44978</v>
       </c>
       <c r="G65" s="72">
@@ -5214,7 +5215,7 @@
         <v>1103</v>
       </c>
       <c r="C66" s="26"/>
-      <c r="D66" s="35" t="s">
+      <c r="D66" s="84" t="s">
         <v>16</v>
       </c>
       <c r="E66" s="22">
@@ -5240,13 +5241,13 @@
         <v>1104</v>
       </c>
       <c r="C67" s="26"/>
-      <c r="D67" s="35" t="s">
+      <c r="D67" s="84" t="s">
         <v>13</v>
       </c>
       <c r="E67" s="22">
         <v>3318</v>
       </c>
-      <c r="F67" s="23">
+      <c r="F67" s="74">
         <v>44979</v>
       </c>
       <c r="G67" s="72">
@@ -5266,7 +5267,7 @@
         <v>1105</v>
       </c>
       <c r="C68" s="26"/>
-      <c r="D68" s="35" t="s">
+      <c r="D68" s="84" t="s">
         <v>17</v>
       </c>
       <c r="E68" s="22">
@@ -5288,7 +5289,7 @@
         <v>1106</v>
       </c>
       <c r="C69" s="26"/>
-      <c r="D69" s="35" t="s">
+      <c r="D69" s="84" t="s">
         <v>13</v>
       </c>
       <c r="E69" s="22">
@@ -5314,7 +5315,7 @@
         <v>1107</v>
       </c>
       <c r="C70" s="26"/>
-      <c r="D70" s="35" t="s">
+      <c r="D70" s="84" t="s">
         <v>15</v>
       </c>
       <c r="E70" s="22">
@@ -5945,12 +5946,12 @@
       <c r="B98" s="44"/>
       <c r="C98" s="45"/>
       <c r="D98" s="3"/>
-      <c r="E98" s="79">
+      <c r="E98" s="80">
         <f>E94-G94</f>
         <v>28625</v>
       </c>
-      <c r="F98" s="80"/>
-      <c r="G98" s="81"/>
+      <c r="F98" s="81"/>
+      <c r="G98" s="82"/>
       <c r="I98" s="3"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -5966,11 +5967,11 @@
       <c r="B100" s="44"/>
       <c r="C100" s="45"/>
       <c r="D100" s="3"/>
-      <c r="E100" s="82" t="s">
+      <c r="E100" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="F100" s="82"/>
-      <c r="G100" s="82"/>
+      <c r="F100" s="83"/>
+      <c r="G100" s="83"/>
       <c r="I100" s="3"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -6081,7 +6082,8 @@
     <mergeCell ref="E100:G100"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #02  FEBRERO 2023/CREDITOS  HERRADURA   FEBRERO     2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #02  FEBRERO 2023/CREDITOS  HERRADURA   FEBRERO     2023.xlsx
@@ -572,7 +572,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -742,25 +742,6 @@
     <xf numFmtId="44" fontId="8" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -785,7 +766,21 @@
     <xf numFmtId="166" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1322,25 +1317,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="78"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="71"/>
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
-      <c r="B2" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
+      <c r="B2" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="61"/>
       <c r="H2" s="5"/>
       <c r="I2" s="3"/>
@@ -3363,12 +3358,12 @@
       <c r="B84" s="44"/>
       <c r="C84" s="45"/>
       <c r="D84" s="3"/>
-      <c r="E84" s="80">
+      <c r="E84" s="73">
         <f>E80-G80</f>
         <v>0</v>
       </c>
-      <c r="F84" s="81"/>
-      <c r="G84" s="82"/>
+      <c r="F84" s="74"/>
+      <c r="G84" s="75"/>
       <c r="I84" s="3"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -3384,11 +3379,11 @@
       <c r="B86" s="44"/>
       <c r="C86" s="45"/>
       <c r="D86" s="3"/>
-      <c r="E86" s="83" t="s">
+      <c r="E86" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="F86" s="83"/>
-      <c r="G86" s="83"/>
+      <c r="F86" s="76"/>
+      <c r="G86" s="76"/>
       <c r="I86" s="3"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -3511,8 +3506,8 @@
   </sheetPr>
   <dimension ref="A1:I111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3531,25 +3526,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="78"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="71"/>
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
-      <c r="B2" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
+      <c r="B2" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="61"/>
       <c r="H2" s="5"/>
       <c r="I2" s="3"/>
@@ -4067,10 +4062,10 @@
       <c r="E22" s="22">
         <v>55696</v>
       </c>
-      <c r="F22" s="74" t="s">
+      <c r="F22" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="G22" s="72">
+      <c r="G22" s="32">
         <f>55000+696</f>
         <v>55696</v>
       </c>
@@ -4237,14 +4232,14 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="14">
+      <c r="A29" s="77">
         <v>44966</v>
       </c>
-      <c r="B29" s="15">
+      <c r="B29" s="78">
         <f t="shared" si="1"/>
         <v>1066</v>
       </c>
-      <c r="C29" s="26"/>
+      <c r="C29" s="79"/>
       <c r="D29" s="21" t="s">
         <v>13</v>
       </c>
@@ -4263,24 +4258,24 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="14">
+      <c r="A30" s="77">
         <v>44967</v>
       </c>
-      <c r="B30" s="15">
+      <c r="B30" s="78">
         <f t="shared" si="1"/>
         <v>1067</v>
       </c>
-      <c r="C30" s="26"/>
+      <c r="C30" s="79"/>
       <c r="D30" s="21" t="s">
         <v>12</v>
       </c>
       <c r="E30" s="22">
         <v>341</v>
       </c>
-      <c r="F30" s="74">
+      <c r="F30" s="23">
         <v>44971</v>
       </c>
-      <c r="G30" s="72">
+      <c r="G30" s="32">
         <v>341</v>
       </c>
       <c r="H30" s="20">
@@ -4289,14 +4284,14 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="14">
+      <c r="A31" s="77">
         <v>44967</v>
       </c>
-      <c r="B31" s="15">
+      <c r="B31" s="78">
         <f t="shared" si="1"/>
         <v>1068</v>
       </c>
-      <c r="C31" s="26"/>
+      <c r="C31" s="79"/>
       <c r="D31" s="21" t="s">
         <v>25</v>
       </c>
@@ -4315,24 +4310,24 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="14">
+      <c r="A32" s="77">
         <v>44967</v>
       </c>
-      <c r="B32" s="15">
+      <c r="B32" s="78">
         <f t="shared" si="1"/>
         <v>1069</v>
       </c>
-      <c r="C32" s="26"/>
+      <c r="C32" s="79"/>
       <c r="D32" s="21" t="s">
         <v>15</v>
       </c>
       <c r="E32" s="22">
         <v>2913</v>
       </c>
-      <c r="F32" s="74" t="s">
+      <c r="F32" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="G32" s="72">
+      <c r="G32" s="32">
         <f>1200+1713</f>
         <v>2913</v>
       </c>
@@ -4342,14 +4337,14 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="14">
+      <c r="A33" s="77">
         <v>44967</v>
       </c>
-      <c r="B33" s="15">
+      <c r="B33" s="78">
         <f t="shared" si="1"/>
         <v>1070</v>
       </c>
-      <c r="C33" s="26"/>
+      <c r="C33" s="79"/>
       <c r="D33" s="21" t="s">
         <v>14</v>
       </c>
@@ -4369,14 +4364,14 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="14">
+      <c r="A34" s="77">
         <v>44967</v>
       </c>
-      <c r="B34" s="15">
+      <c r="B34" s="78">
         <f t="shared" si="1"/>
         <v>1071</v>
       </c>
-      <c r="C34" s="26"/>
+      <c r="C34" s="79"/>
       <c r="D34" s="21" t="s">
         <v>13</v>
       </c>
@@ -4395,24 +4390,24 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14">
+      <c r="A35" s="77">
         <v>44967</v>
       </c>
-      <c r="B35" s="15">
+      <c r="B35" s="78">
         <f t="shared" si="1"/>
         <v>1072</v>
       </c>
-      <c r="C35" s="26"/>
+      <c r="C35" s="79"/>
       <c r="D35" s="21" t="s">
         <v>24</v>
       </c>
       <c r="E35" s="22">
         <v>17130</v>
       </c>
-      <c r="F35" s="74">
+      <c r="F35" s="23">
         <v>44976</v>
       </c>
-      <c r="G35" s="72">
+      <c r="G35" s="32">
         <v>17130</v>
       </c>
       <c r="H35" s="20">
@@ -4421,24 +4416,24 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="14">
+      <c r="A36" s="77">
         <v>44968</v>
       </c>
-      <c r="B36" s="15">
+      <c r="B36" s="78">
         <f t="shared" si="1"/>
         <v>1073</v>
       </c>
-      <c r="C36" s="26"/>
+      <c r="C36" s="79"/>
       <c r="D36" s="21" t="s">
         <v>15</v>
       </c>
       <c r="E36" s="22">
         <v>2533</v>
       </c>
-      <c r="F36" s="74">
+      <c r="F36" s="23">
         <v>44974</v>
       </c>
-      <c r="G36" s="72">
+      <c r="G36" s="32">
         <v>2533</v>
       </c>
       <c r="H36" s="20">
@@ -4447,14 +4442,14 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="14">
+      <c r="A37" s="77">
         <v>44968</v>
       </c>
-      <c r="B37" s="15">
+      <c r="B37" s="78">
         <f t="shared" si="1"/>
         <v>1074</v>
       </c>
-      <c r="C37" s="26"/>
+      <c r="C37" s="79"/>
       <c r="D37" s="21" t="s">
         <v>13</v>
       </c>
@@ -4473,24 +4468,24 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="14">
+      <c r="A38" s="77">
         <v>44968</v>
       </c>
-      <c r="B38" s="15">
+      <c r="B38" s="78">
         <f t="shared" si="1"/>
         <v>1075</v>
       </c>
-      <c r="C38" s="26"/>
+      <c r="C38" s="79"/>
       <c r="D38" s="21" t="s">
         <v>25</v>
       </c>
       <c r="E38" s="22">
         <v>11200</v>
       </c>
-      <c r="F38" s="74">
+      <c r="F38" s="23">
         <v>44970</v>
       </c>
-      <c r="G38" s="72">
+      <c r="G38" s="32">
         <v>11200</v>
       </c>
       <c r="H38" s="20">
@@ -4499,24 +4494,24 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="14">
+      <c r="A39" s="77">
         <v>44969</v>
       </c>
-      <c r="B39" s="15">
+      <c r="B39" s="78">
         <f t="shared" si="1"/>
         <v>1076</v>
       </c>
-      <c r="C39" s="26"/>
+      <c r="C39" s="79"/>
       <c r="D39" s="21" t="s">
         <v>16</v>
       </c>
       <c r="E39" s="22">
         <v>8000</v>
       </c>
-      <c r="F39" s="74">
+      <c r="F39" s="23">
         <v>44970</v>
       </c>
-      <c r="G39" s="72">
+      <c r="G39" s="32">
         <v>8000</v>
       </c>
       <c r="H39" s="20">
@@ -4525,24 +4520,24 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="14">
+      <c r="A40" s="77">
         <v>44969</v>
       </c>
-      <c r="B40" s="15">
+      <c r="B40" s="78">
         <f t="shared" si="1"/>
         <v>1077</v>
       </c>
-      <c r="C40" s="26"/>
+      <c r="C40" s="79"/>
       <c r="D40" s="21" t="s">
         <v>13</v>
       </c>
       <c r="E40" s="22">
         <v>5096</v>
       </c>
-      <c r="F40" s="74">
+      <c r="F40" s="23">
         <v>44970</v>
       </c>
-      <c r="G40" s="72">
+      <c r="G40" s="32">
         <v>5096</v>
       </c>
       <c r="H40" s="20">
@@ -4551,24 +4546,24 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="69">
+      <c r="A41" s="77">
         <v>44970</v>
       </c>
-      <c r="B41" s="15">
+      <c r="B41" s="78">
         <f t="shared" si="1"/>
         <v>1078</v>
       </c>
-      <c r="C41" s="26"/>
-      <c r="D41" s="73" t="s">
+      <c r="C41" s="79"/>
+      <c r="D41" s="21" t="s">
         <v>12</v>
       </c>
       <c r="E41" s="22">
         <v>357</v>
       </c>
-      <c r="F41" s="74">
+      <c r="F41" s="23">
         <v>44971</v>
       </c>
-      <c r="G41" s="72">
+      <c r="G41" s="32">
         <v>357</v>
       </c>
       <c r="H41" s="20">
@@ -4577,24 +4572,24 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="69">
+      <c r="A42" s="77">
         <v>44970</v>
       </c>
-      <c r="B42" s="15">
+      <c r="B42" s="78">
         <f t="shared" si="1"/>
         <v>1079</v>
       </c>
-      <c r="C42" s="26"/>
-      <c r="D42" s="73" t="s">
+      <c r="C42" s="79"/>
+      <c r="D42" s="21" t="s">
         <v>15</v>
       </c>
       <c r="E42" s="22">
         <v>1947</v>
       </c>
-      <c r="F42" s="74" t="s">
+      <c r="F42" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="G42" s="72">
+      <c r="G42" s="32">
         <f>600+1347</f>
         <v>1947</v>
       </c>
@@ -4604,24 +4599,24 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="69">
+      <c r="A43" s="77">
         <v>44970</v>
       </c>
-      <c r="B43" s="15">
+      <c r="B43" s="78">
         <f t="shared" si="1"/>
         <v>1080</v>
       </c>
-      <c r="C43" s="26"/>
-      <c r="D43" s="73" t="s">
+      <c r="C43" s="79"/>
+      <c r="D43" s="21" t="s">
         <v>19</v>
       </c>
       <c r="E43" s="22">
         <v>5832</v>
       </c>
-      <c r="F43" s="74">
+      <c r="F43" s="23">
         <v>44971</v>
       </c>
-      <c r="G43" s="72">
+      <c r="G43" s="32">
         <v>5832</v>
       </c>
       <c r="H43" s="20">
@@ -4630,24 +4625,24 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="69">
+      <c r="A44" s="77">
         <v>44970</v>
       </c>
-      <c r="B44" s="15">
+      <c r="B44" s="78">
         <f t="shared" si="1"/>
         <v>1081</v>
       </c>
-      <c r="C44" s="26"/>
-      <c r="D44" s="73" t="s">
+      <c r="C44" s="79"/>
+      <c r="D44" s="21" t="s">
         <v>13</v>
       </c>
       <c r="E44" s="22">
         <v>4280</v>
       </c>
-      <c r="F44" s="74">
+      <c r="F44" s="23">
         <v>44971</v>
       </c>
-      <c r="G44" s="72">
+      <c r="G44" s="32">
         <v>4280</v>
       </c>
       <c r="H44" s="20">
@@ -4656,24 +4651,24 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="69">
+      <c r="A45" s="77">
         <v>44970</v>
       </c>
-      <c r="B45" s="15">
+      <c r="B45" s="78">
         <f t="shared" si="1"/>
         <v>1082</v>
       </c>
-      <c r="C45" s="26"/>
-      <c r="D45" s="73" t="s">
+      <c r="C45" s="79"/>
+      <c r="D45" s="21" t="s">
         <v>16</v>
       </c>
       <c r="E45" s="22">
         <v>4072</v>
       </c>
-      <c r="F45" s="74">
+      <c r="F45" s="23">
         <v>44973</v>
       </c>
-      <c r="G45" s="72">
+      <c r="G45" s="32">
         <v>4072</v>
       </c>
       <c r="H45" s="20">
@@ -4682,24 +4677,24 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="69">
+      <c r="A46" s="77">
         <v>44971</v>
       </c>
-      <c r="B46" s="15">
+      <c r="B46" s="78">
         <f t="shared" si="1"/>
         <v>1083</v>
       </c>
-      <c r="C46" s="26"/>
-      <c r="D46" s="73" t="s">
+      <c r="C46" s="79"/>
+      <c r="D46" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E46" s="22">
         <v>2100</v>
       </c>
-      <c r="F46" s="74" t="s">
+      <c r="F46" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="G46" s="72">
+      <c r="G46" s="32">
         <f>1559+541</f>
         <v>2100</v>
       </c>
@@ -4709,15 +4704,15 @@
       </c>
     </row>
     <row r="47" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="69">
+      <c r="A47" s="77">
         <v>44971</v>
       </c>
-      <c r="B47" s="15">
+      <c r="B47" s="78">
         <f t="shared" si="1"/>
         <v>1084</v>
       </c>
-      <c r="C47" s="28"/>
-      <c r="D47" s="73" t="s">
+      <c r="C47" s="79"/>
+      <c r="D47" s="21" t="s">
         <v>15</v>
       </c>
       <c r="E47" s="22">
@@ -4726,7 +4721,7 @@
       <c r="F47" s="23">
         <v>44975</v>
       </c>
-      <c r="G47" s="72">
+      <c r="G47" s="32">
         <v>1866</v>
       </c>
       <c r="H47" s="20">
@@ -4735,24 +4730,24 @@
       </c>
     </row>
     <row r="48" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="69">
+      <c r="A48" s="77">
         <v>44971</v>
       </c>
-      <c r="B48" s="15">
+      <c r="B48" s="78">
         <f t="shared" si="1"/>
         <v>1085</v>
       </c>
-      <c r="C48" s="29"/>
-      <c r="D48" s="73" t="s">
+      <c r="C48" s="79"/>
+      <c r="D48" s="21" t="s">
         <v>13</v>
       </c>
       <c r="E48" s="22">
         <v>4328</v>
       </c>
-      <c r="F48" s="74">
+      <c r="F48" s="23">
         <v>44973</v>
       </c>
-      <c r="G48" s="72">
+      <c r="G48" s="32">
         <v>4328</v>
       </c>
       <c r="H48" s="20">
@@ -4761,24 +4756,24 @@
       </c>
     </row>
     <row r="49" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="69">
+      <c r="A49" s="77">
         <v>44940</v>
       </c>
-      <c r="B49" s="15">
+      <c r="B49" s="78">
         <f t="shared" si="1"/>
         <v>1086</v>
       </c>
-      <c r="C49" s="26"/>
-      <c r="D49" s="73" t="s">
+      <c r="C49" s="79"/>
+      <c r="D49" s="21" t="s">
         <v>24</v>
       </c>
       <c r="E49" s="22">
         <v>219</v>
       </c>
-      <c r="F49" s="74">
+      <c r="F49" s="23">
         <v>44976</v>
       </c>
-      <c r="G49" s="72">
+      <c r="G49" s="32">
         <v>219</v>
       </c>
       <c r="H49" s="20">
@@ -4787,24 +4782,24 @@
       </c>
     </row>
     <row r="50" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="69">
+      <c r="A50" s="77">
         <v>44973</v>
       </c>
-      <c r="B50" s="15">
+      <c r="B50" s="78">
         <f t="shared" si="1"/>
         <v>1087</v>
       </c>
-      <c r="C50" s="26"/>
-      <c r="D50" s="73" t="s">
+      <c r="C50" s="79"/>
+      <c r="D50" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E50" s="22">
         <v>3685</v>
       </c>
-      <c r="F50" s="74" t="s">
+      <c r="F50" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="G50" s="72">
+      <c r="G50" s="32">
         <f>3485+200</f>
         <v>3685</v>
       </c>
@@ -4814,24 +4809,24 @@
       </c>
     </row>
     <row r="51" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="69">
+      <c r="A51" s="77">
         <v>44973</v>
       </c>
-      <c r="B51" s="15">
+      <c r="B51" s="78">
         <f t="shared" si="1"/>
         <v>1088</v>
       </c>
-      <c r="C51" s="26"/>
-      <c r="D51" s="73" t="s">
+      <c r="C51" s="79"/>
+      <c r="D51" s="21" t="s">
         <v>15</v>
       </c>
       <c r="E51" s="22">
         <v>2394</v>
       </c>
-      <c r="F51" s="74" t="s">
+      <c r="F51" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="G51" s="72">
+      <c r="G51" s="32">
         <f>1300+1094</f>
         <v>2394</v>
       </c>
@@ -4841,24 +4836,24 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="69">
+      <c r="A52" s="77">
         <v>44973</v>
       </c>
-      <c r="B52" s="15">
+      <c r="B52" s="78">
         <f t="shared" si="1"/>
         <v>1089</v>
       </c>
-      <c r="C52" s="26"/>
-      <c r="D52" s="73" t="s">
+      <c r="C52" s="79"/>
+      <c r="D52" s="21" t="s">
         <v>13</v>
       </c>
       <c r="E52" s="22">
         <v>3224</v>
       </c>
-      <c r="F52" s="74">
+      <c r="F52" s="23">
         <v>44974</v>
       </c>
-      <c r="G52" s="72">
+      <c r="G52" s="32">
         <v>3224</v>
       </c>
       <c r="H52" s="20">
@@ -4867,24 +4862,24 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="69">
+      <c r="A53" s="77">
         <v>44974</v>
       </c>
-      <c r="B53" s="15">
+      <c r="B53" s="78">
         <f t="shared" si="1"/>
         <v>1090</v>
       </c>
-      <c r="C53" s="26"/>
-      <c r="D53" s="73" t="s">
+      <c r="C53" s="79"/>
+      <c r="D53" s="21" t="s">
         <v>13</v>
       </c>
       <c r="E53" s="22">
         <v>3096</v>
       </c>
-      <c r="F53" s="74">
+      <c r="F53" s="23">
         <v>44975</v>
       </c>
-      <c r="G53" s="72">
+      <c r="G53" s="32">
         <v>3096</v>
       </c>
       <c r="H53" s="20">
@@ -4893,24 +4888,24 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="69">
+      <c r="A54" s="77">
         <v>44974</v>
       </c>
-      <c r="B54" s="15">
+      <c r="B54" s="78">
         <f t="shared" si="1"/>
         <v>1091</v>
       </c>
-      <c r="C54" s="26"/>
-      <c r="D54" s="73" t="s">
+      <c r="C54" s="79"/>
+      <c r="D54" s="21" t="s">
         <v>15</v>
       </c>
       <c r="E54" s="22">
         <v>1749</v>
       </c>
-      <c r="F54" s="74">
+      <c r="F54" s="23">
         <v>44976</v>
       </c>
-      <c r="G54" s="72">
+      <c r="G54" s="32">
         <v>1749</v>
       </c>
       <c r="H54" s="20">
@@ -4919,15 +4914,15 @@
       </c>
     </row>
     <row r="55" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="70">
+      <c r="A55" s="80">
         <v>44974</v>
       </c>
-      <c r="B55" s="15">
+      <c r="B55" s="78">
         <f t="shared" si="1"/>
         <v>1092</v>
       </c>
-      <c r="C55" s="26"/>
-      <c r="D55" s="75" t="s">
+      <c r="C55" s="79"/>
+      <c r="D55" s="25" t="s">
         <v>24</v>
       </c>
       <c r="E55" s="31">
@@ -4936,7 +4931,7 @@
       <c r="F55" s="23">
         <v>44983</v>
       </c>
-      <c r="G55" s="72">
+      <c r="G55" s="32">
         <v>15310</v>
       </c>
       <c r="H55" s="33">
@@ -4945,15 +4940,15 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="69">
+      <c r="A56" s="77">
         <v>44975</v>
       </c>
-      <c r="B56" s="15">
+      <c r="B56" s="78">
         <f t="shared" si="1"/>
         <v>1093</v>
       </c>
-      <c r="C56" s="26"/>
-      <c r="D56" s="73" t="s">
+      <c r="C56" s="79"/>
+      <c r="D56" s="21" t="s">
         <v>12</v>
       </c>
       <c r="E56" s="22">
@@ -4962,7 +4957,7 @@
       <c r="F56" s="23">
         <v>44982</v>
       </c>
-      <c r="G56" s="72">
+      <c r="G56" s="32">
         <v>271</v>
       </c>
       <c r="H56" s="20">
@@ -4971,24 +4966,24 @@
       </c>
     </row>
     <row r="57" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="69">
+      <c r="A57" s="77">
         <v>44975</v>
       </c>
-      <c r="B57" s="15">
+      <c r="B57" s="78">
         <f t="shared" si="1"/>
         <v>1094</v>
       </c>
-      <c r="C57" s="26"/>
-      <c r="D57" s="73" t="s">
+      <c r="C57" s="79"/>
+      <c r="D57" s="21" t="s">
         <v>15</v>
       </c>
       <c r="E57" s="22">
         <v>2997</v>
       </c>
-      <c r="F57" s="74" t="s">
+      <c r="F57" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="G57" s="72">
+      <c r="G57" s="32">
         <f>900+2097</f>
         <v>2997</v>
       </c>
@@ -4998,24 +4993,24 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="69">
+      <c r="A58" s="77">
         <v>44975</v>
       </c>
-      <c r="B58" s="15">
+      <c r="B58" s="78">
         <f t="shared" si="1"/>
         <v>1095</v>
       </c>
-      <c r="C58" s="26"/>
-      <c r="D58" s="73" t="s">
+      <c r="C58" s="79"/>
+      <c r="D58" s="21" t="s">
         <v>17</v>
       </c>
       <c r="E58" s="22">
         <v>1620</v>
       </c>
-      <c r="F58" s="74">
+      <c r="F58" s="23">
         <v>44976</v>
       </c>
-      <c r="G58" s="72">
+      <c r="G58" s="32">
         <v>1620</v>
       </c>
       <c r="H58" s="20">
@@ -5024,24 +5019,24 @@
       </c>
     </row>
     <row r="59" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="69">
+      <c r="A59" s="77">
         <v>44975</v>
       </c>
-      <c r="B59" s="15">
+      <c r="B59" s="78">
         <f t="shared" si="1"/>
         <v>1096</v>
       </c>
-      <c r="C59" s="26"/>
-      <c r="D59" s="73" t="s">
+      <c r="C59" s="79"/>
+      <c r="D59" s="21" t="s">
         <v>13</v>
       </c>
       <c r="E59" s="22">
         <v>5024</v>
       </c>
-      <c r="F59" s="74">
+      <c r="F59" s="23">
         <v>44976</v>
       </c>
-      <c r="G59" s="72">
+      <c r="G59" s="32">
         <v>5024</v>
       </c>
       <c r="H59" s="20">
@@ -5050,24 +5045,24 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="69">
+      <c r="A60" s="77">
         <v>44975</v>
       </c>
-      <c r="B60" s="15">
+      <c r="B60" s="78">
         <f t="shared" si="1"/>
         <v>1097</v>
       </c>
-      <c r="C60" s="26"/>
-      <c r="D60" s="73" t="s">
+      <c r="C60" s="79"/>
+      <c r="D60" s="21" t="s">
         <v>25</v>
       </c>
       <c r="E60" s="22">
         <v>11200</v>
       </c>
-      <c r="F60" s="74">
+      <c r="F60" s="23">
         <v>44977</v>
       </c>
-      <c r="G60" s="72">
+      <c r="G60" s="32">
         <v>11200</v>
       </c>
       <c r="H60" s="20">
@@ -5076,15 +5071,15 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="69">
+      <c r="A61" s="77">
         <v>44976</v>
       </c>
-      <c r="B61" s="15">
+      <c r="B61" s="78">
         <f t="shared" si="1"/>
         <v>1098</v>
       </c>
-      <c r="C61" s="26"/>
-      <c r="D61" s="73" t="s">
+      <c r="C61" s="79"/>
+      <c r="D61" s="21" t="s">
         <v>15</v>
       </c>
       <c r="E61" s="22">
@@ -5093,7 +5088,7 @@
       <c r="F61" s="23">
         <v>44981</v>
       </c>
-      <c r="G61" s="72">
+      <c r="G61" s="32">
         <v>1450</v>
       </c>
       <c r="H61" s="20">
@@ -5102,24 +5097,24 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="69">
+      <c r="A62" s="77">
         <v>44976</v>
       </c>
-      <c r="B62" s="15">
+      <c r="B62" s="78">
         <f t="shared" si="1"/>
         <v>1099</v>
       </c>
-      <c r="C62" s="26"/>
-      <c r="D62" s="73" t="s">
+      <c r="C62" s="79"/>
+      <c r="D62" s="21" t="s">
         <v>13</v>
       </c>
       <c r="E62" s="22">
         <v>4670</v>
       </c>
-      <c r="F62" s="74" t="s">
+      <c r="F62" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="G62" s="72">
+      <c r="G62" s="32">
         <f>4670</f>
         <v>4670</v>
       </c>
@@ -5129,24 +5124,24 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="69">
+      <c r="A63" s="77">
         <v>44977</v>
       </c>
-      <c r="B63" s="15">
+      <c r="B63" s="78">
         <f t="shared" si="1"/>
         <v>1100</v>
       </c>
-      <c r="C63" s="26"/>
-      <c r="D63" s="73" t="s">
+      <c r="C63" s="79"/>
+      <c r="D63" s="21" t="s">
         <v>19</v>
       </c>
       <c r="E63" s="22">
         <v>5080</v>
       </c>
-      <c r="F63" s="74">
+      <c r="F63" s="23">
         <v>44978</v>
       </c>
-      <c r="G63" s="72">
+      <c r="G63" s="32">
         <v>5080</v>
       </c>
       <c r="H63" s="20">
@@ -5155,24 +5150,24 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="69">
+      <c r="A64" s="77">
         <v>44977</v>
       </c>
-      <c r="B64" s="15">
+      <c r="B64" s="78">
         <f t="shared" si="1"/>
         <v>1101</v>
       </c>
-      <c r="C64" s="26"/>
-      <c r="D64" s="73" t="s">
+      <c r="C64" s="79"/>
+      <c r="D64" s="21" t="s">
         <v>15</v>
       </c>
       <c r="E64" s="22">
         <v>1000</v>
       </c>
-      <c r="F64" s="74">
+      <c r="F64" s="23">
         <v>44978</v>
       </c>
-      <c r="G64" s="72">
+      <c r="G64" s="32">
         <v>1000</v>
       </c>
       <c r="H64" s="20">
@@ -5181,24 +5176,24 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="71">
+      <c r="A65" s="81">
         <v>44977</v>
       </c>
-      <c r="B65" s="15">
+      <c r="B65" s="78">
         <f t="shared" si="1"/>
         <v>1102</v>
       </c>
-      <c r="C65" s="26"/>
-      <c r="D65" s="84" t="s">
+      <c r="C65" s="79"/>
+      <c r="D65" s="35" t="s">
         <v>13</v>
       </c>
       <c r="E65" s="22">
         <v>3620</v>
       </c>
-      <c r="F65" s="74">
+      <c r="F65" s="23">
         <v>44978</v>
       </c>
-      <c r="G65" s="72">
+      <c r="G65" s="32">
         <v>3620</v>
       </c>
       <c r="H65" s="20">
@@ -5207,15 +5202,15 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="71">
+      <c r="A66" s="81">
         <v>44978</v>
       </c>
-      <c r="B66" s="15">
+      <c r="B66" s="78">
         <f t="shared" si="1"/>
         <v>1103</v>
       </c>
-      <c r="C66" s="26"/>
-      <c r="D66" s="84" t="s">
+      <c r="C66" s="79"/>
+      <c r="D66" s="35" t="s">
         <v>16</v>
       </c>
       <c r="E66" s="22">
@@ -5224,7 +5219,7 @@
       <c r="F66" s="23">
         <v>44980</v>
       </c>
-      <c r="G66" s="72">
+      <c r="G66" s="32">
         <v>9657</v>
       </c>
       <c r="H66" s="20">
@@ -5233,24 +5228,24 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="71">
+      <c r="A67" s="81">
         <v>44978</v>
       </c>
-      <c r="B67" s="15">
+      <c r="B67" s="78">
         <f t="shared" si="1"/>
         <v>1104</v>
       </c>
-      <c r="C67" s="26"/>
-      <c r="D67" s="84" t="s">
+      <c r="C67" s="79"/>
+      <c r="D67" s="35" t="s">
         <v>13</v>
       </c>
       <c r="E67" s="22">
         <v>3318</v>
       </c>
-      <c r="F67" s="74">
+      <c r="F67" s="23">
         <v>44979</v>
       </c>
-      <c r="G67" s="72">
+      <c r="G67" s="32">
         <v>3318</v>
       </c>
       <c r="H67" s="20">
@@ -5259,37 +5254,37 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="71">
+      <c r="A68" s="81">
         <v>44978</v>
       </c>
-      <c r="B68" s="15">
+      <c r="B68" s="78">
         <f t="shared" si="1"/>
         <v>1105</v>
       </c>
-      <c r="C68" s="26"/>
-      <c r="D68" s="84" t="s">
+      <c r="C68" s="79"/>
+      <c r="D68" s="35" t="s">
         <v>17</v>
       </c>
       <c r="E68" s="22">
         <v>5400</v>
       </c>
       <c r="F68" s="23"/>
-      <c r="G68" s="72"/>
+      <c r="G68" s="32"/>
       <c r="H68" s="20">
         <f t="shared" si="0"/>
         <v>5400</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="71">
+      <c r="A69" s="81">
         <v>44979</v>
       </c>
-      <c r="B69" s="15">
+      <c r="B69" s="78">
         <f t="shared" si="1"/>
         <v>1106</v>
       </c>
-      <c r="C69" s="26"/>
-      <c r="D69" s="84" t="s">
+      <c r="C69" s="79"/>
+      <c r="D69" s="35" t="s">
         <v>13</v>
       </c>
       <c r="E69" s="22">
@@ -5298,7 +5293,7 @@
       <c r="F69" s="23">
         <v>44980</v>
       </c>
-      <c r="G69" s="72">
+      <c r="G69" s="32">
         <v>2999</v>
       </c>
       <c r="H69" s="20">
@@ -5307,15 +5302,15 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="71">
+      <c r="A70" s="81">
         <v>44979</v>
       </c>
-      <c r="B70" s="15">
+      <c r="B70" s="78">
         <f t="shared" ref="B70:B91" si="2">B69+1</f>
         <v>1107</v>
       </c>
-      <c r="C70" s="26"/>
-      <c r="D70" s="84" t="s">
+      <c r="C70" s="79"/>
+      <c r="D70" s="35" t="s">
         <v>15</v>
       </c>
       <c r="E70" s="22">
@@ -5324,7 +5319,7 @@
       <c r="F70" s="23">
         <v>44981</v>
       </c>
-      <c r="G70" s="72">
+      <c r="G70" s="32">
         <v>728</v>
       </c>
       <c r="H70" s="20">
@@ -5333,14 +5328,14 @@
       </c>
     </row>
     <row r="71" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="71">
+      <c r="A71" s="81">
         <v>44980</v>
       </c>
-      <c r="B71" s="15">
+      <c r="B71" s="78">
         <f t="shared" si="2"/>
         <v>1108</v>
       </c>
-      <c r="C71" s="26"/>
+      <c r="C71" s="79"/>
       <c r="D71" s="35" t="s">
         <v>14</v>
       </c>
@@ -5350,7 +5345,7 @@
       <c r="F71" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="G71" s="72">
+      <c r="G71" s="32">
         <f>225+341</f>
         <v>566</v>
       </c>
@@ -5360,14 +5355,14 @@
       </c>
     </row>
     <row r="72" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="71">
+      <c r="A72" s="81">
         <v>44980</v>
       </c>
-      <c r="B72" s="15">
+      <c r="B72" s="78">
         <f t="shared" si="2"/>
         <v>1109</v>
       </c>
-      <c r="C72" s="26"/>
+      <c r="C72" s="79"/>
       <c r="D72" s="35" t="s">
         <v>15</v>
       </c>
@@ -5377,7 +5372,7 @@
       <c r="F72" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="G72" s="72">
+      <c r="G72" s="32">
         <f>800+1532</f>
         <v>2332</v>
       </c>
@@ -5387,14 +5382,14 @@
       </c>
     </row>
     <row r="73" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="71">
+      <c r="A73" s="81">
         <v>44980</v>
       </c>
-      <c r="B73" s="15">
+      <c r="B73" s="78">
         <f t="shared" si="2"/>
         <v>1110</v>
       </c>
-      <c r="C73" s="26"/>
+      <c r="C73" s="79"/>
       <c r="D73" s="35" t="s">
         <v>19</v>
       </c>
@@ -5404,7 +5399,7 @@
       <c r="F73" s="23">
         <v>44981</v>
       </c>
-      <c r="G73" s="72">
+      <c r="G73" s="32">
         <v>9086</v>
       </c>
       <c r="H73" s="20">
@@ -5412,15 +5407,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="71">
+    <row r="74" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="81">
         <v>44980</v>
       </c>
-      <c r="B74" s="15">
+      <c r="B74" s="78">
         <f t="shared" si="2"/>
         <v>1111</v>
       </c>
-      <c r="C74" s="26"/>
+      <c r="C74" s="79"/>
       <c r="D74" s="35" t="s">
         <v>13</v>
       </c>
@@ -5430,7 +5425,7 @@
       <c r="F74" s="23">
         <v>44981</v>
       </c>
-      <c r="G74" s="72">
+      <c r="G74" s="32">
         <v>2419</v>
       </c>
       <c r="H74" s="20">
@@ -5439,14 +5434,14 @@
       </c>
     </row>
     <row r="75" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="71">
+      <c r="A75" s="81">
         <v>44981</v>
       </c>
-      <c r="B75" s="15">
+      <c r="B75" s="78">
         <f t="shared" si="2"/>
         <v>1112</v>
       </c>
-      <c r="C75" s="26"/>
+      <c r="C75" s="79"/>
       <c r="D75" s="35" t="s">
         <v>15</v>
       </c>
@@ -5456,7 +5451,7 @@
       <c r="F75" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="G75" s="72">
+      <c r="G75" s="32">
         <f>1000+750</f>
         <v>1750</v>
       </c>
@@ -5466,14 +5461,14 @@
       </c>
     </row>
     <row r="76" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="71">
+      <c r="A76" s="81">
         <v>44981</v>
       </c>
-      <c r="B76" s="15">
+      <c r="B76" s="78">
         <f t="shared" si="2"/>
         <v>1113</v>
       </c>
-      <c r="C76" s="26"/>
+      <c r="C76" s="79"/>
       <c r="D76" s="35" t="s">
         <v>13</v>
       </c>
@@ -5483,7 +5478,7 @@
       <c r="F76" s="23">
         <v>44982</v>
       </c>
-      <c r="G76" s="72">
+      <c r="G76" s="32">
         <v>3091</v>
       </c>
       <c r="H76" s="20">
@@ -5492,14 +5487,14 @@
       </c>
     </row>
     <row r="77" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="71">
+      <c r="A77" s="81">
         <v>44981</v>
       </c>
-      <c r="B77" s="15">
+      <c r="B77" s="78">
         <f t="shared" si="2"/>
         <v>1114</v>
       </c>
-      <c r="C77" s="26"/>
+      <c r="C77" s="79"/>
       <c r="D77" s="35" t="s">
         <v>24</v>
       </c>
@@ -5507,21 +5502,21 @@
         <v>8100</v>
       </c>
       <c r="F77" s="23"/>
-      <c r="G77" s="72"/>
+      <c r="G77" s="32"/>
       <c r="H77" s="20">
         <f t="shared" si="0"/>
         <v>8100</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="71">
+      <c r="A78" s="81">
         <v>44981</v>
       </c>
-      <c r="B78" s="15">
+      <c r="B78" s="78">
         <f t="shared" si="2"/>
         <v>1115</v>
       </c>
-      <c r="C78" s="26"/>
+      <c r="C78" s="79"/>
       <c r="D78" s="35" t="s">
         <v>19</v>
       </c>
@@ -5531,7 +5526,7 @@
       <c r="F78" s="23">
         <v>44982</v>
       </c>
-      <c r="G78" s="72">
+      <c r="G78" s="32">
         <v>5125</v>
       </c>
       <c r="H78" s="20">
@@ -5540,14 +5535,14 @@
       </c>
     </row>
     <row r="79" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="71">
+      <c r="A79" s="81">
         <v>44981</v>
       </c>
-      <c r="B79" s="15">
+      <c r="B79" s="78">
         <f t="shared" si="2"/>
         <v>1116</v>
       </c>
-      <c r="C79" s="26"/>
+      <c r="C79" s="79"/>
       <c r="D79" s="35" t="s">
         <v>25</v>
       </c>
@@ -5557,7 +5552,7 @@
       <c r="F79" s="23">
         <v>44984</v>
       </c>
-      <c r="G79" s="72">
+      <c r="G79" s="32">
         <v>11200</v>
       </c>
       <c r="H79" s="20">
@@ -5566,14 +5561,14 @@
       </c>
     </row>
     <row r="80" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="71">
+      <c r="A80" s="81">
         <v>44982</v>
       </c>
-      <c r="B80" s="15">
+      <c r="B80" s="78">
         <f t="shared" si="2"/>
         <v>1117</v>
       </c>
-      <c r="C80" s="26"/>
+      <c r="C80" s="79"/>
       <c r="D80" s="35" t="s">
         <v>14</v>
       </c>
@@ -5583,7 +5578,7 @@
       <c r="F80" s="23">
         <v>44982</v>
       </c>
-      <c r="G80" s="72">
+      <c r="G80" s="32">
         <v>4889</v>
       </c>
       <c r="H80" s="20">
@@ -5592,14 +5587,14 @@
       </c>
     </row>
     <row r="81" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="71">
+      <c r="A81" s="81">
         <v>44982</v>
       </c>
-      <c r="B81" s="15">
+      <c r="B81" s="78">
         <f t="shared" si="2"/>
         <v>1118</v>
       </c>
-      <c r="C81" s="26"/>
+      <c r="C81" s="79"/>
       <c r="D81" s="35" t="s">
         <v>15</v>
       </c>
@@ -5609,7 +5604,7 @@
       <c r="F81" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="G81" s="72">
+      <c r="G81" s="32">
         <f>1000</f>
         <v>1000</v>
       </c>
@@ -5619,14 +5614,14 @@
       </c>
     </row>
     <row r="82" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="71">
+      <c r="A82" s="81">
         <v>44982</v>
       </c>
-      <c r="B82" s="15">
+      <c r="B82" s="78">
         <f t="shared" si="2"/>
         <v>1119</v>
       </c>
-      <c r="C82" s="26"/>
+      <c r="C82" s="79"/>
       <c r="D82" s="35" t="s">
         <v>13</v>
       </c>
@@ -5636,7 +5631,7 @@
       <c r="F82" s="23">
         <v>44985</v>
       </c>
-      <c r="G82" s="72">
+      <c r="G82" s="32">
         <v>4897</v>
       </c>
       <c r="H82" s="20">
@@ -5645,14 +5640,14 @@
       </c>
     </row>
     <row r="83" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="71">
+      <c r="A83" s="81">
         <v>44982</v>
       </c>
-      <c r="B83" s="15">
+      <c r="B83" s="78">
         <f t="shared" si="2"/>
         <v>1120</v>
       </c>
-      <c r="C83" s="26"/>
+      <c r="C83" s="79"/>
       <c r="D83" s="35" t="s">
         <v>14</v>
       </c>
@@ -5662,7 +5657,7 @@
       <c r="F83" s="23">
         <v>44982</v>
       </c>
-      <c r="G83" s="72">
+      <c r="G83" s="32">
         <v>948</v>
       </c>
       <c r="H83" s="20">
@@ -5671,14 +5666,14 @@
       </c>
     </row>
     <row r="84" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="71">
+      <c r="A84" s="81">
         <v>44982</v>
       </c>
-      <c r="B84" s="15">
+      <c r="B84" s="78">
         <f t="shared" si="2"/>
         <v>1121</v>
       </c>
-      <c r="C84" s="26"/>
+      <c r="C84" s="79"/>
       <c r="D84" s="35" t="s">
         <v>12</v>
       </c>
@@ -5686,21 +5681,21 @@
         <v>3828</v>
       </c>
       <c r="F84" s="23"/>
-      <c r="G84" s="72"/>
+      <c r="G84" s="32"/>
       <c r="H84" s="20">
         <f t="shared" si="0"/>
         <v>3828</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="71">
+      <c r="A85" s="81">
         <v>44983</v>
       </c>
-      <c r="B85" s="15">
+      <c r="B85" s="78">
         <f t="shared" si="2"/>
         <v>1122</v>
       </c>
-      <c r="C85" s="26"/>
+      <c r="C85" s="79"/>
       <c r="D85" s="35" t="s">
         <v>15</v>
       </c>
@@ -5710,7 +5705,7 @@
       <c r="F85" s="23">
         <v>44985</v>
       </c>
-      <c r="G85" s="72">
+      <c r="G85" s="32">
         <v>1121</v>
       </c>
       <c r="H85" s="20">
@@ -5719,14 +5714,14 @@
       </c>
     </row>
     <row r="86" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="71">
+      <c r="A86" s="81">
         <v>44983</v>
       </c>
-      <c r="B86" s="15">
+      <c r="B86" s="78">
         <f t="shared" si="2"/>
         <v>1123</v>
       </c>
-      <c r="C86" s="26"/>
+      <c r="C86" s="79"/>
       <c r="D86" s="35" t="s">
         <v>13</v>
       </c>
@@ -5736,7 +5731,7 @@
       <c r="F86" s="23">
         <v>44984</v>
       </c>
-      <c r="G86" s="72">
+      <c r="G86" s="32">
         <v>5494</v>
       </c>
       <c r="H86" s="20">
@@ -5745,14 +5740,14 @@
       </c>
     </row>
     <row r="87" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="71">
+      <c r="A87" s="81">
         <v>44984</v>
       </c>
-      <c r="B87" s="15">
+      <c r="B87" s="78">
         <f t="shared" si="2"/>
         <v>1124</v>
       </c>
-      <c r="C87" s="26"/>
+      <c r="C87" s="79"/>
       <c r="D87" s="35" t="s">
         <v>15</v>
       </c>
@@ -5762,7 +5757,7 @@
       <c r="F87" s="23">
         <v>44985</v>
       </c>
-      <c r="G87" s="72">
+      <c r="G87" s="32">
         <v>1115</v>
       </c>
       <c r="H87" s="20">
@@ -5771,14 +5766,14 @@
       </c>
     </row>
     <row r="88" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="71">
+      <c r="A88" s="81">
         <v>44984</v>
       </c>
-      <c r="B88" s="15">
+      <c r="B88" s="78">
         <f t="shared" si="2"/>
         <v>1125</v>
       </c>
-      <c r="C88" s="26"/>
+      <c r="C88" s="79"/>
       <c r="D88" s="35" t="s">
         <v>57</v>
       </c>
@@ -5786,21 +5781,21 @@
         <v>3175</v>
       </c>
       <c r="F88" s="23"/>
-      <c r="G88" s="72"/>
+      <c r="G88" s="32"/>
       <c r="H88" s="20">
         <f t="shared" si="0"/>
         <v>3175</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="71">
+      <c r="A89" s="81">
         <v>44985</v>
       </c>
-      <c r="B89" s="15">
+      <c r="B89" s="78">
         <f t="shared" si="2"/>
         <v>1126</v>
       </c>
-      <c r="C89" s="26"/>
+      <c r="C89" s="79"/>
       <c r="D89" s="35" t="s">
         <v>14</v>
       </c>
@@ -5810,7 +5805,7 @@
       <c r="F89" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="G89" s="72">
+      <c r="G89" s="32">
         <f>5000</f>
         <v>5000</v>
       </c>
@@ -5820,14 +5815,14 @@
       </c>
     </row>
     <row r="90" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="71">
+      <c r="A90" s="81">
         <v>44985</v>
       </c>
-      <c r="B90" s="15">
+      <c r="B90" s="78">
         <f t="shared" si="2"/>
         <v>1127</v>
       </c>
-      <c r="C90" s="26"/>
+      <c r="C90" s="79"/>
       <c r="D90" s="35" t="s">
         <v>15</v>
       </c>
@@ -5835,21 +5830,21 @@
         <v>2404</v>
       </c>
       <c r="F90" s="23"/>
-      <c r="G90" s="72"/>
+      <c r="G90" s="32"/>
       <c r="H90" s="20">
         <f t="shared" si="0"/>
         <v>2404</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="71">
+      <c r="A91" s="81">
         <v>44985</v>
       </c>
-      <c r="B91" s="15">
+      <c r="B91" s="78">
         <f t="shared" si="2"/>
         <v>1128</v>
       </c>
-      <c r="C91" s="26"/>
+      <c r="C91" s="79"/>
       <c r="D91" s="35" t="s">
         <v>24</v>
       </c>
@@ -5857,7 +5852,7 @@
         <v>3240</v>
       </c>
       <c r="F91" s="23"/>
-      <c r="G91" s="72"/>
+      <c r="G91" s="32"/>
       <c r="H91" s="20">
         <f t="shared" si="0"/>
         <v>3240</v>
@@ -5946,12 +5941,12 @@
       <c r="B98" s="44"/>
       <c r="C98" s="45"/>
       <c r="D98" s="3"/>
-      <c r="E98" s="80">
+      <c r="E98" s="73">
         <f>E94-G94</f>
         <v>28625</v>
       </c>
-      <c r="F98" s="81"/>
-      <c r="G98" s="82"/>
+      <c r="F98" s="74"/>
+      <c r="G98" s="75"/>
       <c r="I98" s="3"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -5967,11 +5962,11 @@
       <c r="B100" s="44"/>
       <c r="C100" s="45"/>
       <c r="D100" s="3"/>
-      <c r="E100" s="83" t="s">
+      <c r="E100" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="F100" s="83"/>
-      <c r="G100" s="83"/>
+      <c r="F100" s="76"/>
+      <c r="G100" s="76"/>
       <c r="I100" s="3"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
